--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -8,10 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="307">
   <si>
     <t>題型名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,12 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  "Identifier": "CE001",
-  "MaximumLimit": 10,
-  "NumberOfQuestions": 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  "Identifier": "CC001",
   "FourOperationsType": 2,
   "MaximumLimit": 20,
@@ -2435,11 +2428,6 @@
   </si>
   <si>
     <t>編號01
-計算結果最大值20
-出題數量3題</t>
-  </si>
-  <si>
-    <t>編號01
 隨機抽取加減運算符
 計算結果最大值20
 出題數量5題
@@ -3134,6 +3122,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CurrencyOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨幣運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號07
+隨機指定貨幣轉換類型
+出題數量10題
+填空項目的位置設定在結果項目上(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加強基礎訓練</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+元角分之間的1對1簡單轉換</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號08
+隨機抽取加減運算符
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20
+出題數量30題(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加答題量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+填空項目的位置隨機設定
+加減法運算題
+一級方程式; 不帶小括號;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號06
+隨機抽取加減運算符
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20
+出題數量20題(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加運算複雜度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+填空項目的位置隨機設定
+加減法運算題
+多級方程式; 不帶小括號;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算式組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombinatorialEquation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CE001",
+  "MaximumLimit": 10,
+  "NumberOfQuestions": 3,
+  "Signs": [ 0, 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CE002
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CE002",
+  "MaximumLimit": 10,
+  "NumberOfQuestions": 3,
+  "Signs": [ 0, 1, 2, 3 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>編號07
 隨機抽取加減運算符
@@ -3167,19 +3344,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CurrencyOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貨幣運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號07
-隨機指定貨幣轉換類型
-出題數量10題
-填空項目的位置設定在結果項目上(</t>
+    <r>
+      <t>編號01
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10(</t>
     </r>
     <r>
       <rPr>
@@ -3190,7 +3379,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>加強基礎訓練</t>
+      <t>關注等式的構成和變換</t>
     </r>
     <r>
       <rPr>
@@ -3202,14 +3391,14 @@
         <scheme val="minor"/>
       </rPr>
       <t>)
-元角分之間的1對1簡單轉換</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號08
-隨機抽取加減運算符
+出題數量3題
+加減法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
 計算結果最大</t>
     </r>
     <r>
@@ -3228,89 +3417,13 @@
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20
-出題數量30題(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加答題量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-填空項目的位置隨機設定
-加減法運算題
-一級方程式; 不帶小括號;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號06
-隨機抽取加減運算符
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20
-出題數量20題(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加運算複雜度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-填空項目的位置隨機設定
-加減法運算題
-多級方程式; 不帶小括號;</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10
+出題數量3題
+加減乘除法運算題</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3319,7 +3432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3408,13 +3521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
@@ -3472,7 +3578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3548,11 +3654,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3572,10 +3700,22 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3584,10 +3724,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3596,41 +3748,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3647,58 +3781,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1028700"/>
-          <a:ext cx="11010900" cy="6848475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3956,7 +4038,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3964,13 +4046,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q81"/>
+  <dimension ref="B1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="17" ySplit="3" topLeftCell="R55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="3" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G60" sqref="G60:J60"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
@@ -4022,2219 +4104,2247 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="2:17" ht="23.45" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" ht="98.45" customHeight="1">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
+      <c r="B5" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
+      <c r="B6" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-    </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
+      <c r="B7" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="19" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="B8" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="B10" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B6" s="9" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B7" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B8" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="23" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="B11" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="2:17" ht="54" customHeight="1">
+      <c r="B12" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="54" customHeight="1">
+      <c r="B13" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="2:17" ht="82.7" customHeight="1">
+      <c r="B14" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B10" s="9" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:17" ht="82.7" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B11" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B12" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="2:17" ht="82.7" customHeight="1">
+      <c r="B16" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="2:17" ht="42.95" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="2:17" ht="42.95" customHeight="1">
+      <c r="B18" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" customHeight="1">
+      <c r="B19" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="21" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="2:17" ht="84" customHeight="1">
-      <c r="B18" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" customHeight="1">
-      <c r="B19" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="2:17" ht="84" customHeight="1">
-      <c r="B20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E20" s="10"/>
+      <c r="B20" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="14"/>
       <c r="F20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="G20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="2:17" ht="84" customHeight="1">
-      <c r="B21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E21" s="10"/>
+      <c r="B21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="14"/>
       <c r="F21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
+      <c r="G21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="2:17" ht="84" customHeight="1">
-      <c r="B22" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="B22" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" spans="2:17" ht="72" customHeight="1">
-      <c r="B23" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="16"/>
+      <c r="G22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" customHeight="1">
+      <c r="B23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="G23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="2:17" ht="72" customHeight="1">
-      <c r="B24" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E24" s="10"/>
+      <c r="B24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" customHeight="1">
+      <c r="B25" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" customHeight="1">
+      <c r="B26" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" customHeight="1">
-      <c r="B25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" customHeight="1">
-      <c r="B26" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-    </row>
-    <row r="27" spans="2:17" ht="83.45" customHeight="1">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" s="14"/>
       <c r="F27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="G27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B28" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16"/>
       <c r="F28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="G28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E29" s="10"/>
+      <c r="B29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="14"/>
       <c r="F29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="G29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="10"/>
+      <c r="B30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="14"/>
       <c r="F30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B32" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="2:17" ht="70.7" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-    </row>
-    <row r="32" spans="2:17" ht="70.7" customHeight="1">
-      <c r="B32" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-    </row>
-    <row r="33" spans="2:17" ht="70.349999999999994" customHeight="1">
-      <c r="B33" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="G33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="2:17" ht="70.349999999999994" customHeight="1">
-      <c r="B34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="10"/>
+      <c r="B34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-    </row>
-    <row r="35" spans="2:17" ht="69" customHeight="1">
-      <c r="B35" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="8" t="s">
+      <c r="G34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="2:17" ht="70.349999999999994" customHeight="1">
+      <c r="B35" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="G35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="2:17" ht="69" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="6" t="s">
+      <c r="D36" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-    </row>
-    <row r="37" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B37" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="10"/>
+      <c r="G36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" customHeight="1">
+      <c r="B37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="16"/>
       <c r="F37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.45" customHeight="1">
+      <c r="B38" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" customHeight="1">
+      <c r="B39" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="21" t="s">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.45" customHeight="1">
+      <c r="B40" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="2:17" ht="67.5" customHeight="1">
-      <c r="B38" s="9" t="s">
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" customHeight="1">
+      <c r="B41" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" customHeight="1">
+      <c r="B42" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.45" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" customHeight="1">
+      <c r="B46" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="21" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" customHeight="1">
+      <c r="B48" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.45" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" customHeight="1">
+      <c r="B50" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.45" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" customHeight="1">
+      <c r="B52" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-    </row>
-    <row r="39" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B39" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="21" t="s">
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B54" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-    </row>
-    <row r="40" spans="2:17" ht="69" customHeight="1">
-      <c r="B40" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" customHeight="1">
-      <c r="B41" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" customHeight="1">
-      <c r="B42" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" customHeight="1">
-      <c r="B43" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-    </row>
-    <row r="44" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-    </row>
-    <row r="45" spans="2:17" ht="42" customHeight="1">
-      <c r="B45" s="9" t="s">
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B55" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B56" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" customHeight="1">
+      <c r="B58" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" customHeight="1">
+      <c r="B59" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" customHeight="1">
+      <c r="B60" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" customHeight="1">
+      <c r="B61" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" customHeight="1">
+      <c r="B62" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" customHeight="1">
+      <c r="B64" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B65" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" customHeight="1">
+      <c r="B66" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B67" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B68" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9" t="s">
+      <c r="C68" s="14"/>
+      <c r="D68" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B69" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B70" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" customHeight="1">
-      <c r="B46" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B71" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" customHeight="1">
-      <c r="B47" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9" t="s">
+      <c r="C71" s="14"/>
+      <c r="D71" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B72" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-    </row>
-    <row r="48" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B48" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-    </row>
-    <row r="49" spans="2:17" ht="42" customHeight="1">
-      <c r="B49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-    </row>
-    <row r="50" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B50" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-    </row>
-    <row r="51" spans="2:17" ht="42" customHeight="1">
-      <c r="B51" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-    </row>
-    <row r="52" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B54" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B55" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B56" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-    </row>
-    <row r="57" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B57" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B58" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-    </row>
-    <row r="59" spans="2:17" ht="64.5" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-    </row>
-    <row r="60" spans="2:17" ht="63" customHeight="1">
-      <c r="B60" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" customHeight="1">
-      <c r="B61" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" customHeight="1">
-      <c r="B62" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-    </row>
-    <row r="63" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B63" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-    </row>
-    <row r="64" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B64" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G64" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-    </row>
-    <row r="65" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B65" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-    </row>
-    <row r="66" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B66" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-    </row>
-    <row r="67" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B67" s="9" t="s">
+      <c r="C72" s="14"/>
+      <c r="D72" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-    </row>
-    <row r="68" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B68" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G68" s="21" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-    </row>
-    <row r="69" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B69" s="9" t="s">
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+    </row>
+    <row r="74" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B74" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B70" s="9" t="s">
+      <c r="E74" s="14"/>
+      <c r="F74" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+    </row>
+    <row r="75" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B75" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="9" t="s">
+      <c r="C75" s="14"/>
+      <c r="D75" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B71" s="9" t="s">
+      <c r="E75" s="14"/>
+      <c r="F75" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+    </row>
+    <row r="76" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B76" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="9" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-    </row>
-    <row r="72" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B72" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-    </row>
-    <row r="73" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B73" s="9" t="s">
+      <c r="E76" s="14"/>
+      <c r="F76" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+    </row>
+    <row r="77" spans="2:17" ht="101.25" customHeight="1">
+      <c r="B77" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+    </row>
+    <row r="78" spans="2:17" ht="105.75" customHeight="1">
+      <c r="B78" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="9" t="s">
+      <c r="C78" s="14"/>
+      <c r="D78" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B74" s="9" t="s">
+      <c r="E78" s="14"/>
+      <c r="F78" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+    </row>
+    <row r="79" spans="2:17" ht="103.5" customHeight="1">
+      <c r="B79" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B75" s="9" t="s">
+      <c r="E79" s="14"/>
+      <c r="F79" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+    </row>
+    <row r="80" spans="2:17" ht="103.5" customHeight="1">
+      <c r="B80" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9" t="s">
+      <c r="C80" s="14"/>
+      <c r="D80" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-    </row>
-    <row r="76" spans="2:17" ht="101.25" customHeight="1">
-      <c r="B76" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-    </row>
-    <row r="77" spans="2:17" ht="105.75" customHeight="1">
-      <c r="B77" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="23" t="s">
+      <c r="E80" s="14"/>
+      <c r="F80" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-    </row>
-    <row r="78" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B78" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="23" t="s">
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+    </row>
+    <row r="81" spans="2:17" ht="117.75" customHeight="1">
+      <c r="B81" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B79" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="23" t="s">
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+    </row>
+    <row r="82" spans="2:17" ht="117.75" customHeight="1">
+      <c r="B82" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-    </row>
-    <row r="80" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B80" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B81" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q81">
+  <autoFilter ref="B3:Q82">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -6247,54 +6357,255 @@
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
-  <mergeCells count="316">
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:Q43"/>
+  <mergeCells count="320">
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:Q38"/>
     <mergeCell ref="G40:J40"/>
     <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -6308,282 +6619,68 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="G42:J42"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -251,38 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  "Identifier": "MP001",
-  "FourOperationsType": 2,
-  "MaximumLimit": 50,
-  "NumberOfQuestions": 5,
-  "Signs": [ 0, 1, 2, 3 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "MP002",
-  "FourOperationsType": 1,
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 5,
-  "Signs": [ 0 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "MP003",
-  "FourOperationsType": 1,
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 5,
-  "Signs": [ 1 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "MP004",
-  "FourOperationsType": 1,
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 8,
-  "Signs": [ 0, 1 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FruitsLinkage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2076,12 +2044,6 @@
       </rPr>
       <t>★★</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號01
-出題數量10題
-難度等級1~3級</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2572,34 +2534,6 @@
   </si>
   <si>
     <t>編號01
-隨機指定加減法運算符
-計算結果最大值50
-出題數量5題
-加減乘除計算式</t>
-  </si>
-  <si>
-    <t>編號02
-指定加法運算符
-計算結果最大值20
-出題數量5題
-加法計算式</t>
-  </si>
-  <si>
-    <t>編號03
-指定減法運算符
-計算結果最大值20
-出題數量5題
-減法計算式</t>
-  </si>
-  <si>
-    <t>編號04
-隨機指定加減法運算符
-計算結果最大值20
-出題數量8題
-加減法計算式</t>
-  </si>
-  <si>
-    <t>編號01
 指定減法運算符
 計算結果最大值20
 出題數量8題
@@ -2827,12 +2761,6 @@
     <t xml:space="preserve">  "Identifier": "FTL04",
   "NumberOfQuestions": 10,
   "Reserve": "{\"Type\" : '0,1,2,3,4,5,6'}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "GFP01",
-  "NumberOfQuestions": 10,
-  "Reserve": "{\"Level\" : '1,2,3'}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3425,6 +3353,87 @@
 出題數量3題
 加減乘除法運算題</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "GFP01",
+  "NumberOfQuestions": 10,
+  "Reserve": "{\"Level\" : '1,2,3'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號01
+出題數量10題
+難度等級1~3級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP001",
+  "NumberOfQuestions": 5,
+  "Signs": [ 0, 1, 2, 3 ],
+  "Reserve": "{\"Level\" : '3,4,5'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">編號01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出題數量5題
+加減乘除計算式
+難度等級3~5級</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP002",
+  "NumberOfQuestions": 6,
+  "Signs": [ 0 ],
+  "Reserve": "{\"Level\" : '1,2'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP003",
+  "NumberOfQuestions": 6,
+  "Signs": [ 1 ],
+  "Reserve": "{\"Level\" : '1,2'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號03
+出題數量6題
+減法計算式
+難度等級1~2級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號02
+出題數量6題
+加法計算式
+難度等級1~2級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP004",
+  "NumberOfQuestions": 8,
+  "Signs": [ 0, 1 ],
+  "Reserve": "{\"Level\" : '1,2,3'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號04
+出題數量8題
+加減法計算式
+難度等級1~3級</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3700,12 +3709,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3718,10 +3721,40 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3730,41 +3763,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4038,7 +4047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4049,10 +4058,10 @@
   <dimension ref="B1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="17" ySplit="3" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
@@ -4104,260 +4113,260 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="2:17" ht="23.45" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="2:17" ht="98.45" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="B5" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="B11" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
     </row>
     <row r="12" spans="2:17" ht="54" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="28" t="s">
@@ -4365,1983 +4374,1983 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="2:17" ht="54" customHeight="1">
-      <c r="B13" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="30"/>
+      <c r="B13" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+        <v>292</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B14" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17" ht="82.7" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17" ht="82.7" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17" ht="42.95" customHeight="1">
+      <c r="B17" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" ht="42.95" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" ht="84" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17" ht="84" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9" t="s">
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" ht="84" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B18" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9" t="s">
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" customHeight="1">
-      <c r="B20" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" customHeight="1">
-      <c r="B21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" customHeight="1">
-      <c r="B22" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" customHeight="1">
-      <c r="B23" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="2:17" ht="72" customHeight="1">
       <c r="B24" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="2:17" ht="51.75" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" customHeight="1">
+      <c r="B37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.45" customHeight="1">
+      <c r="B38" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.45" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" customHeight="1">
+      <c r="B41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" customHeight="1">
-      <c r="B25" s="13" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" customHeight="1">
+      <c r="B42" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" customHeight="1">
+      <c r="B43" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" customHeight="1">
+      <c r="B44" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.45" customHeight="1">
+      <c r="B45" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" customHeight="1">
+      <c r="B47" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" customHeight="1">
+      <c r="B48" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.45" customHeight="1">
+      <c r="B49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" customHeight="1">
+      <c r="B50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.45" customHeight="1">
+      <c r="B51" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B53" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B56" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B57" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" customHeight="1">
+      <c r="B58" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" customHeight="1">
+      <c r="B59" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" customHeight="1">
+      <c r="B60" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" customHeight="1">
+      <c r="B61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" customHeight="1">
+      <c r="B62" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" customHeight="1">
+      <c r="B63" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B65" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" customHeight="1">
+      <c r="B66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B67" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B69" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B70" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B73" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+    </row>
+    <row r="74" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B74" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" customHeight="1">
-      <c r="B26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
+      <c r="C74" s="12"/>
+      <c r="D74" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+    </row>
+    <row r="75" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B75" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" customHeight="1">
-      <c r="B27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13" t="s">
+      <c r="C75" s="12"/>
+      <c r="D75" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+    </row>
+    <row r="76" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B76" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B29" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13" t="s">
+      <c r="C76" s="12"/>
+      <c r="D76" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B30" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B31" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B32" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="2:17" ht="70.7" customHeight="1">
-      <c r="B33" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="2:17" ht="70.349999999999994" customHeight="1">
-      <c r="B34" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+    </row>
+    <row r="77" spans="2:17" ht="101.25" customHeight="1">
+      <c r="B77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="18"/>
+      <c r="F77" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+    </row>
+    <row r="78" spans="2:17" ht="105.75" customHeight="1">
+      <c r="B78" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="2:17" ht="70.349999999999994" customHeight="1">
-      <c r="B35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+    </row>
+    <row r="79" spans="2:17" ht="103.5" customHeight="1">
+      <c r="B79" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="2:17" ht="69" customHeight="1">
-      <c r="B36" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
+      <c r="C79" s="12"/>
+      <c r="D79" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+    </row>
+    <row r="80" spans="2:17" ht="103.5" customHeight="1">
+      <c r="B80" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B38" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" customHeight="1">
-      <c r="B39" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
+      <c r="E80" s="12"/>
+      <c r="F80" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+    </row>
+    <row r="81" spans="2:17" ht="117.75" customHeight="1">
+      <c r="B81" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B40" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="s">
+      <c r="E81" s="12"/>
+      <c r="F81" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+    </row>
+    <row r="82" spans="2:17" ht="117.75" customHeight="1">
+      <c r="B82" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" customHeight="1">
-      <c r="B42" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" customHeight="1">
-      <c r="B43" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" customHeight="1">
-      <c r="B46" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" customHeight="1">
-      <c r="B47" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" customHeight="1">
-      <c r="B48" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B49" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" customHeight="1">
-      <c r="B50" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B51" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B53" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B55" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B56" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B57" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B58" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" customHeight="1">
-      <c r="B60" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" customHeight="1">
-      <c r="B61" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" customHeight="1">
-      <c r="B62" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" customHeight="1">
-      <c r="B63" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B64" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B65" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B66" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B68" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B69" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B70" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B71" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B72" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B73" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="17" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B74" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B75" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-    </row>
-    <row r="76" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B76" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-    </row>
-    <row r="77" spans="2:17" ht="101.25" customHeight="1">
-      <c r="B77" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-    </row>
-    <row r="78" spans="2:17" ht="105.75" customHeight="1">
-      <c r="B78" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B79" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-    </row>
-    <row r="80" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B80" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B81" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-    </row>
-    <row r="82" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B82" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:Q82">
@@ -6358,6 +6367,302 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="320">
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B13:C13"/>
@@ -6382,302 +6687,6 @@
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9557103C-627A-470A-9148-E070B4A70016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
@@ -13,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -76,43 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  "Identifier": "AC007",
-  "FourOperationsType": 2,
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 20,
-  "QuestionType": 2,
-  "Signs": [ 0, 1 ],
-  "Reserve": "{\"Multistage\" : 1, \"Bracket\" : 1}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "CC001",
-  "FourOperationsType": 2,
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 5,
-  "Signs": [ 0, 1 ],
-  "Reserve": "{\"SectionNumber\" : 5}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "CC002",
-  "FourOperationsType": 1,
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 5,
-  "Signs": [ 0 ],
-  "Reserve": "{\"SectionNumber\" : 4}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "CC003",
-  "FourOperationsType": 1,
-  "MaximumLimit": 30,
-  "NumberOfQuestions": 5,
-  "Signs": [ 1 ],
-  "Reserve": "{\"SectionNumber\" : 5}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  "Identifier": "CL001",
   "NumberOfQuestions": 5,
   "Reserve": "{\"DivQueueType\" : 0}"</t>
@@ -300,7 +264,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -319,7 +283,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -338,7 +302,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -357,7 +321,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -376,7 +340,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -395,7 +359,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -414,7 +378,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,7 +397,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -452,7 +416,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -471,7 +435,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -490,7 +454,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -509,7 +473,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -528,7 +492,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -547,7 +511,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -566,7 +530,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -585,7 +549,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -604,7 +568,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -623,7 +587,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -642,7 +606,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -661,7 +625,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -680,7 +644,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -699,7 +663,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -718,7 +682,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -737,7 +701,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -756,7 +720,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -775,7 +739,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -794,7 +758,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -813,7 +777,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -832,7 +796,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -851,7 +815,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -870,7 +834,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -889,7 +853,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -908,7 +872,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -927,7 +891,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1016,7 +980,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1043,7 +1007,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1062,7 +1026,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1097,7 +1061,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1116,7 +1080,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1135,7 +1099,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1177,7 +1141,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1196,7 +1160,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1230,7 +1194,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1249,7 +1213,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1275,7 +1239,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1301,7 +1265,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1350,7 +1314,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1377,7 +1341,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1412,7 +1376,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1431,7 +1395,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1458,7 +1422,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1477,7 +1441,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1532,7 +1496,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1551,7 +1515,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1579,7 +1543,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1607,7 +1571,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1662,7 +1626,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1681,7 +1645,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1700,7 +1664,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1719,7 +1683,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1738,7 +1702,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1749,7 +1713,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1770,7 +1734,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1781,7 +1745,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1802,7 +1766,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1813,7 +1777,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1834,7 +1798,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1845,7 +1809,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1834,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1889,7 +1853,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1908,7 +1872,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1927,7 +1891,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1946,7 +1910,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1957,7 +1921,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1982,7 +1946,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1993,7 +1957,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2018,7 +1982,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2037,7 +2001,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2066,7 +2030,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2085,7 +2049,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2103,7 +2067,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2114,7 +2078,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2133,7 +2097,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2144,7 +2108,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2164,7 +2128,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2183,7 +2147,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2202,7 +2166,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2221,7 +2185,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2240,7 +2204,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2259,7 +2223,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2278,7 +2242,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2342,75 +2306,6 @@
 填空項目的位置設定在結果項目上
 米、分米、釐米、毫米之間的1個單位到3個單位的複雜轉換</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號01
-隨機抽取加減乘除運算符
-計算結果最大值50
-出題數量20題
-填空項目的位置隨機設定
-加減乘除運算題都可出題
-一級方程式; 不帶小括號;</t>
-  </si>
-  <si>
-    <t>編號02
-指定加法運算符
-計算結果最大值30
-出題數量10題
-填空項目的位置設定在結果項目上
-加法運算題
-一級方程式; 不帶小括號;</t>
-  </si>
-  <si>
-    <t>編號03
-指定減法運算符
-計算結果最大值40
-出題數量15題
-填空項目的位置隨機設定
-減法運算題
-一級方程式; 不帶小括號;</t>
-  </si>
-  <si>
-    <t>編號04
-指定乘法運算符
-計算結果最大值81
-出題數量10題
-填空項目的位置設定在結果項目上
-乘法運算題
-一級方程式; 不帶小括號;</t>
-  </si>
-  <si>
-    <t>編號05
-指定除法運算符
-計算結果最大值81
-出題數量10題
-填空項目的位置設定在結果項目上
-除法運算題
-一級方程式; 不帶小括號;</t>
-  </si>
-  <si>
-    <t>編號01
-隨機抽取加減運算符
-計算結果最大值20
-出題數量5題
-加減法運算題
-連接層數為5層</t>
-  </si>
-  <si>
-    <t>編號02
-指定加法運算符
-計算結果最大值30
-出題數量5題
-加法運算題
-連接層數為4層</t>
-  </si>
-  <si>
-    <t>編號03
-指定減法運算符
-計算結果最大值30
-出題數量5題
-減法運算題
-連接層數為3層</t>
   </si>
   <si>
     <t>編號01
@@ -2935,7 +2830,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2961,8 +2856,272 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">AC008
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨幣運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號07
+隨機指定貨幣轉換類型
+出題數量10題
+填空項目的位置設定在結果項目上(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加強基礎訓練</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+元角分之間的1對1簡單轉換</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算式組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombinatorialEquation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CE001",
+  "MaximumLimit": 10,
+  "NumberOfQuestions": 3,
+  "Signs": [ 0, 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CE002
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CE002",
+  "MaximumLimit": 10,
+  "NumberOfQuestions": 3,
+  "Signs": [ 0, 1, 2, 3 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關注等式的構成和變換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+出題數量3題
+加減法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10
+出題數量3題
+加減乘除法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "GFP01",
+  "NumberOfQuestions": 10,
+  "Reserve": "{\"Level\" : '1,2,3'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號01
+出題數量10題
+難度等級1~3級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP001",
+  "NumberOfQuestions": 5,
+  "Signs": [ 0, 1, 2, 3 ],
+  "Reserve": "{\"Level\" : '3,4,5'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">編號01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出題數量5題
+加減乘除計算式
+難度等級3~5級</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP002",
+  "NumberOfQuestions": 6,
+  "Signs": [ 0 ],
+  "Reserve": "{\"Level\" : '1,2'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP003",
+  "NumberOfQuestions": 6,
+  "Signs": [ 1 ],
+  "Reserve": "{\"Level\" : '1,2'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號03
+出題數量6題
+減法計算式
+難度等級1~2級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號02
+出題數量6題
+加法計算式
+難度等級1~2級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MP004",
+  "NumberOfQuestions": 8,
+  "Signs": [ 0, 1 ],
+  "Reserve": "{\"Level\" : '1,2,3'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號04
+出題數量8題
+加減法計算式
+難度等級1~3級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  "Identifier": "AC001",
-  "FourOperationsType": 2,
   "MaximumLimit": 50,
   "NumberOfQuestions": 20,
   "QuestionType": 2,
@@ -2972,7 +3131,6 @@
   </si>
   <si>
     <t xml:space="preserve">  "Identifier": "AC002",
-  "FourOperationsType": 1,
   "MaximumLimit": 30,
   "NumberOfQuestions": 10,
   "QuestionType": 1,
@@ -2982,7 +3140,6 @@
   </si>
   <si>
     <t xml:space="preserve">  "Identifier": "AC003",
-  "FourOperationsType": 1,
   "MaximumLimit": 40,
   "NumberOfQuestions": 15,
   "QuestionType": 2,
@@ -2992,7 +3149,6 @@
   </si>
   <si>
     <t xml:space="preserve">  "Identifier": "AC004",
-  "FourOperationsType": 1,
   "MaximumLimit": 81,
   "NumberOfQuestions": 10,
   "QuestionType": 1,
@@ -3002,7 +3158,6 @@
   </si>
   <si>
     <t xml:space="preserve">  "Identifier": "AC005",
-  "FourOperationsType": 1,
   "MaximumLimit": 81,
   "NumberOfQuestions": 10,
   "QuestionType": 1,
@@ -3011,8 +3166,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  "Identifier": "AC008",
+  "MaximumLimit": 20,
+  "NumberOfQuestions": 30,
+  "QuestionType": 2,
+  "Signs": [ 0, 1 ],
+  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  "Identifier": "AC006",
-  "FourOperationsType": 2,
   "MaximumLimit": 20,
   "NumberOfQuestions": 20,
   "QuestionType": 2,
@@ -3021,96 +3184,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">AC008
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>★★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC008",
-  "FourOperationsType": 2,
+    <t xml:space="preserve">  "Identifier": "AC007",
   "MaximumLimit": 20,
-  "NumberOfQuestions": 30,
+  "NumberOfQuestions": 20,
   "QuestionType": 2,
   "Signs": [ 0, 1 ],
-  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貨幣運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號07
-隨機指定貨幣轉換類型
+  "Reserve": "{\"Multistage\" : 1, \"Bracket\" : 1}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號01
+計算結果最大值50
+出題數量20題
+填空項目的位置隨機設定
+加減乘除運算題都可出題
+一級方程式; 不帶小括號;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號02
+計算結果最大值30
 出題數量10題
-填空項目的位置設定在結果項目上(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>加強基礎訓練</t>
+填空項目的位置設定在結果項目上
+加法運算題
+一級方程式; 不帶小括號;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號03
+計算結果最大值40
+出題數量15題
+填空項目的位置隨機設定
+減法運算題
+一級方程式; 不帶小括號;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號04
+計算結果最大值81
+出題數量10題
+填空項目的位置設定在結果項目上
+乘法運算題
+一級方程式; 不帶小括號;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號05
+計算結果最大值81
+出題數量10題
+填空項目的位置設定在結果項目上
+除法運算題
+一級方程式; 不帶小括號;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號08
+計算結果最大</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-元角分之間的1對1簡單轉換</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號08
-隨機抽取加減運算符
-計算結果最大</t>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3121,7 +3268,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3132,7 +3279,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3146,14 +3293,13 @@
   <si>
     <r>
       <t>編號06
-隨機抽取加減運算符
 計算結果最大</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3164,7 +3310,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3175,7 +3321,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3186,7 +3332,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3198,57 +3344,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算式組合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CombinatorialEquation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "CE001",
-  "MaximumLimit": 10,
-  "NumberOfQuestions": 3,
-  "Signs": [ 0, 1 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CE002
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>★★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "CE002",
-  "MaximumLimit": 10,
-  "NumberOfQuestions": 3,
-  "Signs": [ 0, 1, 2, 3 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>編號07
-隨機抽取加減運算符
 計算結果最大</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3259,7 +3363,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3272,186 +3376,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>編號01
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>關注等式的構成和變換</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-出題數量3題
-加減法運算題</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號01
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10
-出題數量3題
-加減乘除法運算題</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "GFP01",
-  "NumberOfQuestions": 10,
-  "Reserve": "{\"Level\" : '1,2,3'}"</t>
+    <t xml:space="preserve">  "Identifier": "CC001",
+  "MaximumLimit": 20,
+  "NumberOfQuestions": 5,
+  "Signs": [ 0, 1 ],
+  "Reserve": "{\"SectionNumber\" : 5}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CC002",
+  "MaximumLimit": 20,
+  "NumberOfQuestions": 5,
+  "Signs": [ 0 ],
+  "Reserve": "{\"SectionNumber\" : 4}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CC003",
+  "MaximumLimit": 30,
+  "NumberOfQuestions": 5,
+  "Signs": [ 1 ],
+  "Reserve": "{\"SectionNumber\" : 5}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>編號01
-出題數量10題
-難度等級1~3級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "MP001",
-  "NumberOfQuestions": 5,
-  "Signs": [ 0, 1, 2, 3 ],
-  "Reserve": "{\"Level\" : '3,4,5'}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">編號01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出題數量5題
-加減乘除計算式
-難度等級3~5級</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "MP002",
-  "NumberOfQuestions": 6,
-  "Signs": [ 0 ],
-  "Reserve": "{\"Level\" : '1,2'}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "MP003",
-  "NumberOfQuestions": 6,
-  "Signs": [ 1 ],
-  "Reserve": "{\"Level\" : '1,2'}"</t>
+計算結果最大值20
+出題數量5題
+加減法運算題
+連接層數為5層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號02
+計算結果最大值30
+出題數量5題
+加法運算題
+連接層數為4層</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>編號03
-出題數量6題
-減法計算式
-難度等級1~2級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號02
-出題數量6題
-加法計算式
-難度等級1~2級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "MP004",
-  "NumberOfQuestions": 8,
-  "Signs": [ 0, 1 ],
-  "Reserve": "{\"Level\" : '1,2,3'}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號04
-出題數量8題
-加減法計算式
-難度等級1~3級</t>
+計算結果最大值30
+出題數量5題
+減法運算題
+連接層數為3層</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3459,7 +3446,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3467,7 +3454,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3475,14 +3462,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3491,7 +3478,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3499,7 +3486,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3508,7 +3495,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3524,7 +3511,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3533,7 +3520,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3541,7 +3528,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3549,7 +3536,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3709,6 +3696,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3721,22 +3714,34 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3745,39 +3750,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4047,14 +4034,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4064,19 +4051,19 @@
       <selection pane="bottomRight" activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="17" width="8.625" style="1"/>
-    <col min="18" max="18" width="21.125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.625" style="2"/>
+    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="17" width="8.6640625" style="1"/>
+    <col min="18" max="18" width="21.109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4094,7 +4081,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4112,2248 +4099,2248 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="23.45" customHeight="1">
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="2:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="2:17" ht="98.45" customHeight="1">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="2:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="2:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="2:17" ht="42.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="2:17" ht="42.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="2:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-    </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="23" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="99" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="23" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="23" t="s">
+      <c r="C71" s="14"/>
+      <c r="D71" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="96" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="2:17" ht="54" customHeight="1">
-      <c r="B12" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="2:17" ht="54" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
+      <c r="C72" s="14"/>
+      <c r="D72" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:17" ht="82.7" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B17" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+    </row>
+    <row r="74" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" customHeight="1">
-      <c r="B19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" customHeight="1">
-      <c r="B22" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11" t="s">
+      <c r="E74" s="14"/>
+      <c r="F74" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+    </row>
+    <row r="75" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11" t="s">
+      <c r="E75" s="14"/>
+      <c r="F75" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+    </row>
+    <row r="76" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" customHeight="1">
-      <c r="B24" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11" t="s">
+      <c r="E76" s="14"/>
+      <c r="F76" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+    </row>
+    <row r="77" spans="2:17" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+    </row>
+    <row r="78" spans="2:17" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11" t="s">
+      <c r="C78" s="14"/>
+      <c r="D78" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+    </row>
+    <row r="79" spans="2:17" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+    </row>
+    <row r="80" spans="2:17" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B28" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11" t="s">
+      <c r="C80" s="14"/>
+      <c r="D80" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11" t="s">
+      <c r="E80" s="14"/>
+      <c r="F80" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+    </row>
+    <row r="81" spans="2:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11" t="s">
+      <c r="E81" s="14"/>
+      <c r="F81" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+    </row>
+    <row r="82" spans="2:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B32" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B34" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="2:17" ht="51.75" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" customHeight="1">
-      <c r="B37" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B38" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" customHeight="1">
-      <c r="B41" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" customHeight="1">
-      <c r="B42" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" customHeight="1">
-      <c r="B43" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" customHeight="1">
-      <c r="B44" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B45" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" customHeight="1">
-      <c r="B46" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" customHeight="1">
-      <c r="B47" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" customHeight="1">
-      <c r="B48" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B49" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" customHeight="1">
-      <c r="B50" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B51" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" customHeight="1">
-      <c r="B52" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B54" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B55" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B56" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B57" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B58" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B59" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" customHeight="1">
-      <c r="B60" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" customHeight="1">
-      <c r="B61" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" customHeight="1">
-      <c r="B62" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" customHeight="1">
-      <c r="B63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B67" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B69" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B70" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="15" t="s">
+      <c r="E82" s="14"/>
+      <c r="F82" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B73" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B74" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B75" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-    </row>
-    <row r="76" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B76" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-    </row>
-    <row r="77" spans="2:17" ht="101.25" customHeight="1">
-      <c r="B77" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-    </row>
-    <row r="78" spans="2:17" ht="105.75" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B79" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-    </row>
-    <row r="80" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B80" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B81" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-    </row>
-    <row r="82" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B82" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q82">
+  <autoFilter ref="B3:Q82" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -6367,16 +6354,292 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="320">
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
@@ -6401,292 +6664,16 @@
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="K41:Q41"/>
     <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9557103C-627A-470A-9148-E070B4A70016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -264,7 +263,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -283,7 +282,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -302,7 +301,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -321,7 +320,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -340,7 +339,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -359,7 +358,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,7 +377,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -397,7 +396,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +415,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -435,7 +434,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -454,7 +453,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -473,7 +472,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -492,7 +491,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -511,7 +510,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +529,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -549,7 +548,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -568,7 +567,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -587,7 +586,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -606,7 +605,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -625,7 +624,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +643,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -663,7 +662,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -682,7 +681,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -701,7 +700,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -720,7 +719,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -739,7 +738,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -758,7 +757,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -777,7 +776,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -796,7 +795,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -815,7 +814,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -834,7 +833,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -853,7 +852,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -872,7 +871,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -891,7 +890,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -980,7 +979,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1007,7 +1006,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1026,7 +1025,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1061,7 +1060,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1080,7 +1079,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1099,7 +1098,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1141,7 +1140,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1160,7 +1159,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1194,7 +1193,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1213,7 +1212,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1239,7 +1238,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1265,7 +1264,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1314,7 +1313,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1341,7 +1340,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1376,7 +1375,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1395,7 +1394,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1422,7 +1421,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1441,7 +1440,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1496,7 +1495,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1515,7 +1514,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1543,7 +1542,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1571,7 +1570,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1626,7 +1625,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1645,7 +1644,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1664,7 +1663,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1683,7 +1682,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1702,7 +1701,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1713,7 +1712,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1734,7 +1733,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1745,7 +1744,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1766,7 +1765,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1777,7 +1776,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1798,7 +1797,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1809,7 +1808,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1834,7 +1833,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1853,7 +1852,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1872,7 +1871,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1891,49 +1890,13 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★★★</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號01
-出題數量4題
-定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增減</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號02
-出題數量6題
-變數增減</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1946,7 +1909,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1957,7 +1920,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1982,7 +1945,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2001,7 +1964,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2030,7 +1993,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2049,7 +2012,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2067,7 +2030,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2078,7 +2041,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2097,7 +2060,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2108,7 +2071,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2128,7 +2091,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2110,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2166,7 +2129,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2185,7 +2148,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2204,7 +2167,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2223,7 +2186,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2242,7 +2205,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2635,18 +2598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  "Identifier": "FTL01",
-  "NumberOfQuestions": 4,
-  "Reserve": "{\"Type\" : '0,1'}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "FTL02",
-  "NumberOfQuestions": 6,
-  "Reserve": "{\"Type\" : '0,1,2,3,4'}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  "Identifier": "FTL03",
   "NumberOfQuestions": 8,
   "Reserve": "{\"Type\" : '2,3,4,5,6'}"</t>
@@ -2830,7 +2781,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2865,7 +2816,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2893,7 +2844,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2904,7 +2855,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2939,7 +2890,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2964,7 +2915,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2975,7 +2926,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2986,7 +2937,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2997,7 +2948,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3017,7 +2968,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3028,7 +2979,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3067,7 +3018,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3246,7 +3197,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3257,7 +3208,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3268,7 +3219,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3279,7 +3230,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3299,7 +3250,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3310,7 +3261,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3321,7 +3272,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3332,7 +3283,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3352,7 +3303,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3363,7 +3314,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3423,22 +3374,59 @@
 連接層數為3層</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "FTL01",
+  "NumberOfQuestions": 4,
+  "Reserve": "{\"Type\" : '0,1,7'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "FTL02",
+  "NumberOfQuestions": 6,
+  "Reserve": "{\"Type\" : '0,1,2,3,4,7'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
+出題數量4題
+定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值增減、數字隊列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號02
+出題數量6題
+變數增減、數字隊列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3446,7 +3434,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3454,7 +3442,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3462,14 +3450,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3478,7 +3466,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3486,7 +3474,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3495,7 +3483,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3511,7 +3499,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3520,7 +3508,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3528,7 +3516,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3536,7 +3524,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3696,12 +3684,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3714,10 +3696,40 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3726,45 +3738,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4034,36 +4022,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6:J6"/>
+      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="17" width="8.6640625" style="1"/>
-    <col min="18" max="18" width="21.109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="2"/>
+    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="11" max="17" width="8.625" style="1"/>
+    <col min="18" max="18" width="21.125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4081,7 +4070,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4099,2249 +4088,2253 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:17" ht="23.45" customHeight="1">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="2:17" ht="83.45" hidden="1" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="28"/>
+      <c r="G4" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="28"/>
+      <c r="G5" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="28"/>
+      <c r="G6" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="24"/>
       <c r="F7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="28"/>
+      <c r="G7" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="G8" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" s="28"/>
+        <v>260</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="28"/>
+      <c r="G10" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="G11" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="2:17" ht="54" hidden="1" customHeight="1">
+      <c r="B12" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" ht="54" hidden="1" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="2:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" ht="71.45" hidden="1" customHeight="1">
+      <c r="B14" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="G14" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17" ht="71.45" hidden="1" customHeight="1">
+      <c r="B15" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="G15" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17" ht="71.45" hidden="1" customHeight="1">
+      <c r="B16" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+      <c r="G16" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17" ht="42.95" hidden="1" customHeight="1">
+      <c r="B17" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="2:17" ht="42.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" ht="42.95" hidden="1" customHeight="1">
+      <c r="B18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B19" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="14"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B21" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B22" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B23" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1">
       <c r="B24" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="B25" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="B26" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="B27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" s="14"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B28" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E29" s="14"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B30" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E30" s="14"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B31" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B32" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B33" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="G33" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B34" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E34" s="14"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="2:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
+      <c r="G34" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1">
+      <c r="B35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="12"/>
       <c r="F35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
+      <c r="G35" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B36" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="12"/>
       <c r="F36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
+      <c r="G36" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B37" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.45" hidden="1" customHeight="1">
+      <c r="B38" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="14"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1">
+      <c r="B39" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E39" s="14"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.45" hidden="1" customHeight="1">
+      <c r="B40" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E40" s="14"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B41" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="9" t="s">
+      <c r="G41" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B42" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="14"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="9" t="s">
+      <c r="G42" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B43" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" s="14"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="9" t="s">
+      <c r="G43" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="12"/>
       <c r="F44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="9" t="s">
+      <c r="G44" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.45" customHeight="1">
+      <c r="B45" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="15" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="14"/>
+      <c r="G45" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="12"/>
       <c r="F46" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47" s="14"/>
+      <c r="G46" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" customHeight="1">
+      <c r="B47" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="12"/>
       <c r="F47" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="14"/>
+      <c r="G47" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" customHeight="1">
+      <c r="B48" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="12"/>
       <c r="F48" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="9" t="s">
+      <c r="G48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="B49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1">
+      <c r="B50" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="8" t="s">
+      <c r="G50" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="6" t="s">
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="B51" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="9" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="s">
+      <c r="G51" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="s">
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="13" t="s">
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B55" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="9" t="s">
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B56" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="13" t="s">
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="13" t="s">
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1">
+      <c r="B58" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1">
+      <c r="B59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1">
+      <c r="B60" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="15" t="s">
+      <c r="C60" s="10"/>
+      <c r="D60" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="18"/>
       <c r="F60" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1">
+      <c r="B61" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1">
+      <c r="B62" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G62" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1">
+      <c r="B63" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="13" t="s">
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B65" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="13" t="s">
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1">
+      <c r="B66" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13" t="s">
+      <c r="C66" s="12"/>
+      <c r="D66" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="9" t="s">
+      <c r="E66" s="12"/>
+      <c r="F66" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="9" t="s">
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B67" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="13" t="s">
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="11" t="s">
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B69" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E70" s="14"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B70" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" s="12"/>
       <c r="F70" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E71" s="14"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" s="12"/>
       <c r="F71" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E72" s="14"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E72" s="12"/>
       <c r="F72" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B73" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E74" s="14"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+    </row>
+    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B74" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" s="12"/>
       <c r="F74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E75" s="14"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+    </row>
+    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B75" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="12"/>
       <c r="F75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-    </row>
-    <row r="76" spans="2:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E76" s="14"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+    </row>
+    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B76" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="12"/>
       <c r="F76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-    </row>
-    <row r="77" spans="2:17" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="11" t="s">
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+    </row>
+    <row r="77" spans="2:17" ht="101.25" hidden="1" customHeight="1">
+      <c r="B77" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="16"/>
+      <c r="E77" s="18"/>
       <c r="F77" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-    </row>
-    <row r="78" spans="2:17" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E78" s="14"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+    </row>
+    <row r="78" spans="2:17" ht="105.75" hidden="1" customHeight="1">
+      <c r="B78" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="12"/>
       <c r="F78" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="14"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+    </row>
+    <row r="79" spans="2:17" ht="103.5" hidden="1" customHeight="1">
+      <c r="B79" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="12"/>
       <c r="F79" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-    </row>
-    <row r="80" spans="2:17" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E80" s="14"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+    </row>
+    <row r="80" spans="2:17" ht="103.5" hidden="1" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="12"/>
       <c r="F80" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E81" s="14"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+    </row>
+    <row r="81" spans="2:17" ht="117.75" hidden="1" customHeight="1">
+      <c r="B81" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="12"/>
       <c r="F81" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-    </row>
-    <row r="82" spans="2:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E82" s="14"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+    </row>
+    <row r="82" spans="2:17" ht="117.75" hidden="1" customHeight="1">
+      <c r="B82" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="12"/>
       <c r="F82" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q82" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0" showButton="0"/>
+  <autoFilter ref="B3:Q82">
+    <filterColumn colId="0" showButton="0">
+      <filters>
+        <filter val="找規律"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6354,6 +6347,302 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="320">
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B13:C13"/>
@@ -6378,302 +6667,6 @@
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A3D6A-0A39-4B92-9FEA-FF3CD2FE53EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
@@ -13,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -263,7 +264,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -282,7 +283,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -301,7 +302,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -320,7 +321,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -339,7 +340,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -358,7 +359,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -377,7 +378,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -396,7 +397,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -415,7 +416,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -434,7 +435,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -453,7 +454,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -472,7 +473,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -491,7 +492,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -510,7 +511,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -529,7 +530,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -548,7 +549,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -567,7 +568,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -586,7 +587,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -605,7 +606,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -624,7 +625,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -643,7 +644,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -662,7 +663,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -681,7 +682,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -700,7 +701,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -719,7 +720,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -738,7 +739,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -757,7 +758,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -776,7 +777,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -795,7 +796,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -814,7 +815,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -833,7 +834,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -852,7 +853,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -871,7 +872,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -890,7 +891,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -979,7 +980,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1006,7 +1007,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1025,7 +1026,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1060,7 +1061,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1079,7 +1080,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1098,7 +1099,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1140,7 +1141,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1159,7 +1160,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1193,7 +1194,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1212,7 +1213,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1238,7 +1239,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1264,7 +1265,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1313,7 +1314,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1340,7 +1341,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1375,7 +1376,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1394,7 +1395,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1421,7 +1422,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1440,7 +1441,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1495,7 +1496,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1514,7 +1515,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1542,7 +1543,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1570,7 +1571,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1625,7 +1626,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1644,7 +1645,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1663,7 +1664,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1682,7 +1683,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1701,7 +1702,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1712,7 +1713,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1733,7 +1734,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1744,7 +1745,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1765,7 +1766,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1776,7 +1777,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1797,7 +1798,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1808,7 +1809,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1833,7 +1834,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1852,7 +1853,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1871,7 +1872,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1890,7 +1891,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1909,7 +1910,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1920,7 +1921,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1945,7 +1946,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1964,7 +1965,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1993,7 +1994,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2012,7 +2013,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2030,7 +2031,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2041,7 +2042,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2060,7 +2061,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2071,7 +2072,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2091,7 +2092,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2110,7 +2111,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2129,7 +2130,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2148,7 +2149,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2167,7 +2168,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2186,7 +2187,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2205,7 +2206,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2781,7 +2782,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2816,7 +2817,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2844,7 +2845,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2855,7 +2856,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2874,13 +2875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  "Identifier": "CE001",
-  "MaximumLimit": 10,
-  "NumberOfQuestions": 3,
-  "Signs": [ 0, 1 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">CE002
 </t>
@@ -2890,20 +2884,13 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★★</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "CE002",
-  "MaximumLimit": 10,
-  "NumberOfQuestions": 3,
-  "Signs": [ 0, 1, 2, 3 ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2915,7 +2902,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2926,7 +2913,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2937,7 +2924,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2948,7 +2935,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2956,37 +2943,6 @@
       <t>)
 出題數量3題
 加減法運算題</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號01
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10
-出題數量3題
-加減乘除法運算題</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3018,7 +2974,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3197,7 +3153,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3208,7 +3164,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3219,7 +3175,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3230,7 +3186,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3250,7 +3206,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3261,7 +3217,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3272,7 +3228,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3283,7 +3239,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3303,7 +3259,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3314,7 +3270,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3396,7 +3352,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3409,24 +3365,69 @@
     <t>編號02
 出題數量6題
 變數增減、數字隊列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CE001",
+  "MaximumLimit": 20,
+  "NumberOfQuestions": 3,
+  "Signs": [ 0, 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "CE002",
+  "MaximumLimit": 81,
+  "NumberOfQuestions": 3,
+  "Signs": [ 0, 1, 2, 3 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81
+出題數量3題
+加減乘除法運算題</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3434,7 +3435,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3442,7 +3443,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3450,14 +3451,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3466,7 +3467,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3474,7 +3475,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3483,7 +3484,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3499,7 +3500,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3508,7 +3509,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3516,7 +3517,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3524,7 +3525,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3684,6 +3685,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3696,22 +3703,34 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3720,39 +3739,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4022,14 +4023,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:Q82"/>
   <sheetViews>
@@ -4037,22 +4038,22 @@
       <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="17" width="8.625" style="1"/>
-    <col min="18" max="18" width="21.125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.625" style="2"/>
+    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="17" width="8.6640625" style="1"/>
+    <col min="18" max="18" width="21.109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4070,7 +4071,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4088,2251 +4089,2251 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="23.45" customHeight="1">
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="2:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-    </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B5" s="11" t="s">
+      <c r="G4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B6" s="11" t="s">
+      <c r="G5" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="G6" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="G7" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B9" s="11" t="s">
+      <c r="G8" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B10" s="11" t="s">
+      <c r="G9" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="G10" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="2:17" ht="54" hidden="1" customHeight="1">
-      <c r="B12" s="27" t="s">
+      <c r="G11" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="2:17" ht="54" hidden="1" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="2:17" ht="71.45" hidden="1" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="G13" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="2:17" ht="71.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="2:17" ht="71.45" hidden="1" customHeight="1">
-      <c r="B15" s="11" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:17" ht="71.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:17" ht="71.45" hidden="1" customHeight="1">
-      <c r="B16" s="11" t="s">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="2:17" ht="71.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.95" hidden="1" customHeight="1">
-      <c r="B17" s="9" t="s">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="2:17" ht="42.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="2:17" ht="42.95" hidden="1" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="2:17" ht="42.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B19" s="9" t="s">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B21" s="11" t="s">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B23" s="11" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="15" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1">
-      <c r="B25" s="11" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="15" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1">
-      <c r="B26" s="11" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="15" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1">
-      <c r="B27" s="11" t="s">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="15" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B28" s="9" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="15" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B29" s="11" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="15" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B30" s="11" t="s">
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B31" s="11" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B33" s="9" t="s">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1">
-      <c r="B34" s="11" t="s">
+      <c r="G33" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1">
-      <c r="B35" s="11" t="s">
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1">
-      <c r="B36" s="11" t="s">
+      <c r="G35" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B37" s="9" t="s">
+      <c r="G36" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="15" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.45" hidden="1" customHeight="1">
-      <c r="B38" s="11" t="s">
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="15" t="s">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1">
-      <c r="B39" s="11" t="s">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="15" t="s">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.45" hidden="1" customHeight="1">
-      <c r="B40" s="11" t="s">
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="15" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B41" s="9" t="s">
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="15" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B42" s="11" t="s">
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="15" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B43" s="11" t="s">
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="15" t="s">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B44" s="11" t="s">
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="15" t="s">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B45" s="9" t="s">
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" customHeight="1">
-      <c r="B46" s="11" t="s">
+      <c r="G45" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" customHeight="1">
-      <c r="B47" s="11" t="s">
+      <c r="G46" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E47" s="12"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="15" t="s">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" customHeight="1">
-      <c r="B48" s="11" t="s">
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="15" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.45" hidden="1" customHeight="1">
-      <c r="B49" s="9" t="s">
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="17" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1">
-      <c r="B50" s="11" t="s">
+      <c r="G49" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="11" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="15" t="s">
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.45" hidden="1" customHeight="1">
-      <c r="B51" s="9" t="s">
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="17" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="15" t="s">
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1">
-      <c r="B52" s="11" t="s">
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="15" t="s">
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B53" s="9" t="s">
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="17" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="15" t="s">
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B54" s="11" t="s">
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="15" t="s">
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B55" s="11" t="s">
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="15" t="s">
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B56" s="11" t="s">
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="11" t="s">
+      <c r="C56" s="14"/>
+      <c r="D56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="12"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="15" t="s">
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B57" s="11" t="s">
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="15" t="s">
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1">
-      <c r="B58" s="11" t="s">
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="15" t="s">
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1">
-      <c r="B59" s="11" t="s">
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11" t="s">
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="15" t="s">
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1">
-      <c r="B60" s="9" t="s">
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="17" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="18"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="15" t="s">
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1">
-      <c r="B61" s="11" t="s">
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="11" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="12"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="15" t="s">
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1">
-      <c r="B62" s="11" t="s">
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="11" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="15" t="s">
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1">
-      <c r="B63" s="11" t="s">
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="11" t="s">
+      <c r="C63" s="14"/>
+      <c r="D63" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="15" t="s">
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1">
-      <c r="B64" s="11" t="s">
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="14"/>
+      <c r="D64" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="15" t="s">
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B65" s="11" t="s">
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="11" t="s">
+      <c r="C65" s="14"/>
+      <c r="D65" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="12"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="15" t="s">
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1">
-      <c r="B66" s="11" t="s">
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="14"/>
+      <c r="D66" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="12"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="15" t="s">
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1">
-      <c r="B67" s="9" t="s">
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="17" t="s">
+      <c r="C67" s="12"/>
+      <c r="D67" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="18"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="15" t="s">
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B68" s="11" t="s">
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="14"/>
+      <c r="D68" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="15" t="s">
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1">
-      <c r="B69" s="9" t="s">
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="17" t="s">
+      <c r="C69" s="12"/>
+      <c r="D69" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="18"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="15" t="s">
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B70" s="11" t="s">
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E70" s="12"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="15" t="s">
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B71" s="11" t="s">
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="14"/>
+      <c r="D71" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E71" s="12"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="15" t="s">
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B72" s="11" t="s">
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="14"/>
+      <c r="D72" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="15" t="s">
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B73" s="9" t="s">
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="17" t="s">
+      <c r="C73" s="12"/>
+      <c r="D73" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="18"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="25" t="s">
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B74" s="11" t="s">
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+    </row>
+    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="11" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E74" s="12"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="25" t="s">
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B75" s="11" t="s">
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+    </row>
+    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="11" t="s">
+      <c r="C75" s="14"/>
+      <c r="D75" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E75" s="12"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="25" t="s">
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-    </row>
-    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B76" s="11" t="s">
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+    </row>
+    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="11" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="25" t="s">
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-    </row>
-    <row r="77" spans="2:17" ht="101.25" hidden="1" customHeight="1">
-      <c r="B77" s="9" t="s">
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+    </row>
+    <row r="77" spans="2:17" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="17" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="25" t="s">
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-    </row>
-    <row r="78" spans="2:17" ht="105.75" hidden="1" customHeight="1">
-      <c r="B78" s="11" t="s">
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+    </row>
+    <row r="78" spans="2:17" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="11" t="s">
+      <c r="C78" s="14"/>
+      <c r="D78" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="25" t="s">
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" hidden="1" customHeight="1">
-      <c r="B79" s="11" t="s">
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+    </row>
+    <row r="79" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="11" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E79" s="12"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="25" t="s">
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-    </row>
-    <row r="80" spans="2:17" ht="103.5" hidden="1" customHeight="1">
-      <c r="B80" s="11" t="s">
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+    </row>
+    <row r="80" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="11" t="s">
+      <c r="C80" s="14"/>
+      <c r="D80" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E80" s="12"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="25" t="s">
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" hidden="1" customHeight="1">
-      <c r="B81" s="11" t="s">
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+    </row>
+    <row r="81" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="14"/>
+      <c r="D81" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E81" s="12"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="25" t="s">
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-    </row>
-    <row r="82" spans="2:17" ht="117.75" hidden="1" customHeight="1">
-      <c r="B82" s="11" t="s">
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+    </row>
+    <row r="82" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="11" t="s">
+      <c r="C82" s="14"/>
+      <c r="D82" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E82" s="12"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="25" t="s">
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q82">
+  <autoFilter ref="B3:Q82" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0">
       <filters>
-        <filter val="找規律"/>
+        <filter val="算式組合"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2" showButton="0"/>
@@ -6347,16 +6348,292 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="320">
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
@@ -6381,292 +6658,16 @@
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="K41:Q41"/>
     <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A3D6A-0A39-4B92-9FEA-FF3CD2FE53EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -264,7 +263,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -283,7 +282,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -302,7 +301,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -321,7 +320,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -340,7 +339,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -359,7 +358,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,7 +377,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -397,7 +396,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +415,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -435,7 +434,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -454,7 +453,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -473,7 +472,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -492,7 +491,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -511,7 +510,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +529,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -549,7 +548,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -568,7 +567,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -587,7 +586,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -606,7 +605,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -625,7 +624,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +643,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -663,7 +662,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -682,7 +681,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -701,7 +700,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -720,7 +719,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -739,7 +738,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -758,7 +757,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -777,7 +776,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -796,7 +795,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -815,7 +814,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -834,7 +833,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -853,7 +852,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -872,7 +871,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -891,7 +890,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -980,7 +979,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1007,7 +1006,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1026,7 +1025,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1061,7 +1060,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1080,7 +1079,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1099,7 +1098,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1141,7 +1140,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1160,7 +1159,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1194,7 +1193,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1213,7 +1212,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1239,7 +1238,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1265,7 +1264,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1314,7 +1313,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1341,7 +1340,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1376,7 +1375,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1395,7 +1394,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1422,7 +1421,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1441,7 +1440,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1469,15 +1468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  "Identifier": "TC003",
-  "FourOperationsType": 2,
-  "NumberOfQuestions": 6,
-  "QuestionType": 1,
-  "Signs": [ 4, 5 ],
-  "Reserve": "{\"ElapsedHours\" : '0', \"IsEssignMinutes\" : 1, \"IsShowSeconds\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  "Identifier": "TC004",
   "FourOperationsType": 2,
   "NumberOfQuestions": 6,
@@ -1496,7 +1486,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1515,7 +1505,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1543,7 +1533,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1571,7 +1561,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1626,7 +1616,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1645,7 +1635,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1664,7 +1654,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1683,7 +1673,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1702,7 +1692,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1713,7 +1703,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1734,7 +1724,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1745,7 +1735,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1766,7 +1756,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1777,7 +1767,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1798,7 +1788,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1809,7 +1799,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1834,7 +1824,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1853,7 +1843,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1872,7 +1862,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1891,7 +1881,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1910,7 +1900,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1921,7 +1911,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1946,7 +1936,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1965,7 +1955,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1994,7 +1984,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2013,7 +2003,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2031,7 +2021,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2042,7 +2032,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2061,7 +2051,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2072,7 +2062,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2092,7 +2082,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2111,7 +2101,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2130,7 +2120,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2149,7 +2139,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2168,7 +2158,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2187,7 +2177,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2206,7 +2196,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2527,22 +2517,6 @@
 在標準的間隔內挑選分針的數值（標準15分鐘【0、15、30、45】）、時針和秒數不參與計算</t>
   </si>
   <si>
-    <t>編號02
-指定加運算符(幾分鐘之前)
-出題數量6題
-填空項目的位置設定在結果項目上
-加運算題(之前)
-在標準的間隔內挑選分針的數值（標準15分鐘【0、15、30、45】），時針和秒數不參與計算</t>
-  </si>
-  <si>
-    <t>編號03
-隨機指定加減運算符(幾分鐘之前/之後)
-出題數量6題
-填空項目的位置設定在結果項目上
-加運算題(之前/之後)
-隨機指定分針的數值，時針和秒數不參與計算</t>
-  </si>
-  <si>
     <t>編號04
 隨機指定加減運算符(之前/之後)
 出題數量6題
@@ -2782,7 +2756,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2817,7 +2791,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2845,7 +2819,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2856,7 +2830,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2884,7 +2858,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2902,7 +2876,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2913,7 +2887,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2924,7 +2898,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2935,7 +2909,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2974,7 +2948,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3153,7 +3127,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3164,7 +3138,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3175,7 +3149,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3186,7 +3160,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3206,7 +3180,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3217,7 +3191,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3228,7 +3202,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3239,7 +3213,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3259,7 +3233,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3270,7 +3244,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3352,7 +3326,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3390,7 +3364,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3401,7 +3375,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3409,6 +3383,121 @@
       <t>81
 出題數量3題
 加減乘除法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "TC003",
+  "FourOperationsType": 2,
+  "NumberOfQuestions": 6,
+  "QuestionType": 1,
+  "Signs": [ 4, 5 ],
+  "Reserve": "{\"ElapsedHours\" : '0', \"IsEssignMinutes\" : 0, \"IsShowSeconds\" : 0}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號02
+指定加運算符(幾分鐘之前)
+出題數量6題
+填空項目的位置設定在結果項目上
+加運算題(之前)
+在標準的間隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挑選分針的數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（標準15分鐘【0、15、30、45】），時針和秒數不參與計算</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號03
+隨機指定加減運算符(幾分鐘之前/之後)
+出題數量6題
+填空項目的位置設定在結果項目上
+加運算題(之前/之後)
+在標準的間隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挑選分針的數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（標準15分鐘【0、15、30、45】），時針和秒數不參與計算</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3416,18 +3505,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3435,7 +3524,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3443,7 +3532,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3451,14 +3540,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3467,7 +3556,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3475,7 +3564,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3484,7 +3573,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3500,7 +3589,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3509,7 +3598,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3517,7 +3606,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3525,9 +3614,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3685,12 +3782,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3703,10 +3794,40 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3715,45 +3836,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4023,14 +4120,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:Q82"/>
   <sheetViews>
@@ -4038,22 +4135,22 @@
       <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78:J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="17" width="8.6640625" style="1"/>
-    <col min="18" max="18" width="21.109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="2"/>
+    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="11" max="17" width="8.625" style="1"/>
+    <col min="18" max="18" width="21.125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4071,7 +4168,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4089,2251 +4186,2251 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:17" ht="23.45" customHeight="1">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="2:17" ht="83.45" hidden="1" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="28"/>
+      <c r="G4" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="28"/>
+      <c r="G5" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="28"/>
+      <c r="G6" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="24"/>
       <c r="F7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="28"/>
+      <c r="G7" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="G8" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="28"/>
+        <v>257</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="28"/>
+      <c r="G10" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
+      <c r="G11" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="2:17" ht="54" hidden="1" customHeight="1">
+      <c r="B12" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="29" t="s">
+      <c r="G12" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="30"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" ht="54" hidden="1" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="2:17" ht="71.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" ht="71.45" hidden="1" customHeight="1">
+      <c r="B14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" ht="71.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17" ht="71.45" hidden="1" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" ht="71.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17" ht="71.45" hidden="1" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15" t="s">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17" ht="42.95" hidden="1" customHeight="1">
+      <c r="B17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="2:17" ht="42.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="14"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" ht="42.95" hidden="1" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="14"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="14"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1">
       <c r="B24" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="14"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="14"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="14"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="14"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="14"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" s="14"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E32" s="14"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="15" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B33" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="14"/>
+      <c r="G33" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="14"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="12"/>
       <c r="F35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E36" s="14"/>
+      <c r="G35" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="12"/>
       <c r="F36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="15" t="s">
+      <c r="G36" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E38" s="14"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.45" hidden="1" customHeight="1">
+      <c r="B38" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="14"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="14"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.45" hidden="1" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G42" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B43" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="B44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="B45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" hidden="1" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" hidden="1" customHeight="1">
+      <c r="B47" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="9" t="s">
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" hidden="1" customHeight="1">
+      <c r="B48" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="B49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1">
+      <c r="B50" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="9" t="s">
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="B51" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="9" t="s">
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="s">
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="13" t="s">
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B55" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="13" t="s">
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B56" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="13" t="s">
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1">
+      <c r="B58" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1">
+      <c r="B59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1">
+      <c r="B60" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="15" t="s">
+      <c r="C60" s="10"/>
+      <c r="D60" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="18"/>
       <c r="F60" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1">
+      <c r="B61" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G61" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1">
+      <c r="B62" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1">
+      <c r="B63" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="13" t="s">
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1">
+      <c r="B64" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="13" t="s">
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B65" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" s="9" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="13" t="s">
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1">
+      <c r="B66" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="13" t="s">
+      <c r="C66" s="12"/>
+      <c r="D66" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G63" s="9" t="s">
+      <c r="E66" s="12"/>
+      <c r="F66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="9" t="s">
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B67" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="13" t="s">
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="11" t="s">
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="B69" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E70" s="14"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B70" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="12"/>
       <c r="F70" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E71" s="14"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="12"/>
       <c r="F71" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E72" s="14"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="12"/>
       <c r="F72" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="B73" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E74" s="14"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+    </row>
+    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B74" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="12"/>
       <c r="F74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="14"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+    </row>
+    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B75" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75" s="12"/>
       <c r="F75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-    </row>
-    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E76" s="14"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+    </row>
+    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1">
+      <c r="B76" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="12"/>
       <c r="F76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-    </row>
-    <row r="77" spans="2:17" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="11" t="s">
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+    </row>
+    <row r="77" spans="2:17" ht="101.25" customHeight="1">
+      <c r="B77" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="16"/>
+      <c r="E77" s="18"/>
       <c r="F77" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-    </row>
-    <row r="78" spans="2:17" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E78" s="14"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+    </row>
+    <row r="78" spans="2:17" ht="105.75" customHeight="1">
+      <c r="B78" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="12"/>
       <c r="F78" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="17" t="s">
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+    </row>
+    <row r="79" spans="2:17" ht="103.5" customHeight="1">
+      <c r="B79" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+    </row>
+    <row r="80" spans="2:17" ht="103.5" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+    </row>
+    <row r="81" spans="2:17" ht="117.75" customHeight="1">
+      <c r="B81" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="17" t="s">
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+    </row>
+    <row r="82" spans="2:17" ht="117.75" customHeight="1">
+      <c r="B82" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-    </row>
-    <row r="80" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-    </row>
-    <row r="82" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q82" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B3:Q82">
     <filterColumn colId="0" showButton="0">
       <filters>
-        <filter val="算式組合"/>
+        <filter val="時間運算"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2" showButton="0"/>
@@ -6348,6 +6445,302 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="320">
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B13:C13"/>
@@ -6372,302 +6765,6 @@
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="318">
   <si>
     <t>題型名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3074,24 +3074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>編號01
-計算結果最大值50
-出題數量20題
-填空項目的位置隨機設定
-加減乘除運算題都可出題
-一級方程式; 不帶小括號;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號02
-計算結果最大值30
-出題數量10題
-填空項目的位置設定在結果項目上
-加法運算題
-一級方程式; 不帶小括號;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>編號03
 計算結果最大值40
 出題數量15題
@@ -3499,6 +3481,255 @@
       </rPr>
       <t>（標準15分鐘【0、15、30、45】），時針和秒數不參與計算</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豎式計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MathUpright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MU001
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MU002
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50
+出題數量20題
+填空項目的位置隨機設定
+加減乘除運算題都可出題
+一級方程式; 不帶小括號;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號02
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30
+出題數量10題
+填空項目的位置設定在結果項目上
+加法運算題
+一級方程式; 不帶小括號;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
+計算結果最大上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+出題數量8題
+填空項目的位置設定在結果項目上
+法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號02
+計算結果最大上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+出題數量8題
+填空項目的位置設定在結果項目上
+減法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MU003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號03
+計算結果最大上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+出題數量10題
+填空項目的位置隨機設定
+加減法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MU001",
+  "MaximumLimit": 45,
+  "NumberOfQuestions": 8,
+  "QuestionType": 1,
+  "Signs": [ 0 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MU002",
+  "MaximumLimit": 45,
+  "NumberOfQuestions": 8,
+  "QuestionType": 1,
+  "Signs": [ 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MU003",
+  "MaximumLimit": 55,
+  "NumberOfQuestions": 10,
+  "QuestionType": 2,
+  "Signs": [ 0, 1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3788,6 +4019,18 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3799,18 +4042,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -4128,14 +4359,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:Q82"/>
+  <dimension ref="B1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="3" topLeftCell="R82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78:J78"/>
+      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
@@ -4214,7 +4444,7 @@
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
     </row>
-    <row r="4" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+    <row r="4" spans="2:17" ht="83.45" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4463,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="25" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
@@ -4242,11 +4472,11 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B5" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="23" t="s">
         <v>233</v>
       </c>
@@ -4261,7 +4491,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="25" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
@@ -4270,11 +4500,11 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="23" t="s">
         <v>236</v>
       </c>
@@ -4289,7 +4519,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -4298,11 +4528,11 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
     </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B7" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="23" t="s">
         <v>236</v>
       </c>
@@ -4317,7 +4547,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -4326,11 +4556,11 @@
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
     </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="23" t="s">
         <v>236</v>
       </c>
@@ -4345,7 +4575,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -4354,11 +4584,11 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
@@ -4373,7 +4603,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -4382,11 +4612,11 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B10" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="23" t="s">
         <v>236</v>
       </c>
@@ -4401,7 +4631,7 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -4410,11 +4640,11 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
     </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B11" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="23" t="s">
         <v>233</v>
       </c>
@@ -4429,7 +4659,7 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
@@ -4438,7 +4668,7 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="2:17" ht="54" hidden="1" customHeight="1">
+    <row r="12" spans="2:17" ht="54" customHeight="1">
       <c r="B12" s="27" t="s">
         <v>131</v>
       </c>
@@ -4450,331 +4680,331 @@
       <c r="F12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15" t="s">
+      <c r="G12" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="2:17" ht="54" hidden="1" customHeight="1">
-      <c r="B13" s="13" t="s">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="2:17" ht="54" customHeight="1">
+      <c r="B13" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="2:17" ht="71.45" hidden="1" customHeight="1">
+      <c r="G13" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="2:17" ht="71.45" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="2:17" ht="71.45" hidden="1" customHeight="1">
-      <c r="B15" s="11" t="s">
+      <c r="G14" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="2:17" ht="71.45" customHeight="1">
+      <c r="B15" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:17" ht="71.45" hidden="1" customHeight="1">
-      <c r="B16" s="11" t="s">
+      <c r="G15" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="2:17" ht="71.45" customHeight="1">
+      <c r="B16" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.95" hidden="1" customHeight="1">
+      <c r="G16" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="2:17" ht="42.95" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="2:17" ht="42.95" hidden="1" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="2:17" ht="42.95" customHeight="1">
+      <c r="B18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1">
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="2:17" ht="84" customHeight="1">
+      <c r="B20" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B21" s="11" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="2:17" ht="84" customHeight="1">
+      <c r="B21" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="2:17" ht="84" customHeight="1">
+      <c r="B22" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1">
-      <c r="B23" s="11" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" customHeight="1">
+      <c r="B23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1">
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="2:17" ht="72" customHeight="1">
       <c r="B24" s="21" t="s">
         <v>135</v>
       </c>
@@ -4786,1384 +5016,1384 @@
       <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="15" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1">
-      <c r="B25" s="11" t="s">
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" customHeight="1">
+      <c r="B25" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="15" t="s">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1">
-      <c r="B26" s="11" t="s">
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" customHeight="1">
+      <c r="B26" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="15" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1">
-      <c r="B27" s="11" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" customHeight="1">
+      <c r="B27" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="15" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.45" hidden="1" customHeight="1">
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="2:17" ht="83.45" customHeight="1">
       <c r="B28" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="15" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B29" s="11" t="s">
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B29" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="15" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B30" s="11" t="s">
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B30" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B31" s="11" t="s">
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B31" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.45" hidden="1" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.45" customHeight="1">
+      <c r="B32" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1">
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="2:17" ht="52.5" customHeight="1">
       <c r="B33" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="15" t="s">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1">
-      <c r="B34" s="11" t="s">
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B34" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15" t="s">
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1">
-      <c r="B35" s="11" t="s">
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="2:17" ht="51.75" customHeight="1">
+      <c r="B35" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="15" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1">
-      <c r="B36" s="11" t="s">
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="2:17" ht="53.25" customHeight="1">
+      <c r="B36" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="15" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" customHeight="1">
       <c r="B37" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="15" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.45" hidden="1" customHeight="1">
-      <c r="B38" s="11" t="s">
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.45" customHeight="1">
+      <c r="B38" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="16"/>
+      <c r="D38" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="15" t="s">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1">
-      <c r="B39" s="11" t="s">
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" customHeight="1">
+      <c r="B39" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="15" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.45" hidden="1" customHeight="1">
-      <c r="B40" s="11" t="s">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.45" customHeight="1">
+      <c r="B40" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="15" t="s">
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1">
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" customHeight="1">
       <c r="B41" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="15" t="s">
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B42" s="11" t="s">
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" customHeight="1">
+      <c r="B42" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="15" t="s">
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B43" s="11" t="s">
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" customHeight="1">
+      <c r="B43" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="15" t="s">
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1">
-      <c r="B44" s="11" t="s">
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" customHeight="1">
+      <c r="B44" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="15" t="s">
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.45" customHeight="1">
       <c r="B45" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" hidden="1" customHeight="1">
-      <c r="B46" s="11" t="s">
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" customHeight="1">
+      <c r="B46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="16"/>
+      <c r="D46" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" hidden="1" customHeight="1">
-      <c r="B47" s="11" t="s">
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" customHeight="1">
+      <c r="B47" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E47" s="12"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="15" t="s">
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" hidden="1" customHeight="1">
-      <c r="B48" s="11" t="s">
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" customHeight="1">
+      <c r="B48" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="16"/>
+      <c r="D48" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="15" t="s">
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.45" customHeight="1">
       <c r="B49" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="15" t="s">
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1">
-      <c r="B50" s="11" t="s">
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" customHeight="1">
+      <c r="B50" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="11" t="s">
+      <c r="C50" s="16"/>
+      <c r="D50" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="15" t="s">
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.45" hidden="1" customHeight="1">
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.45" customHeight="1">
       <c r="B51" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="15" t="s">
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1">
-      <c r="B52" s="11" t="s">
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" customHeight="1">
+      <c r="B52" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="15" t="s">
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" customHeight="1">
       <c r="B53" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="15" t="s">
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B54" s="11" t="s">
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B54" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11" t="s">
+      <c r="C54" s="16"/>
+      <c r="D54" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="15" t="s">
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B55" s="11" t="s">
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B55" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="16"/>
+      <c r="D55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="15" t="s">
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B56" s="11" t="s">
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B56" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="11" t="s">
+      <c r="C56" s="16"/>
+      <c r="D56" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="12"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="15" t="s">
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1">
-      <c r="B57" s="11" t="s">
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B57" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="15" t="s">
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1">
-      <c r="B58" s="11" t="s">
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" customHeight="1">
+      <c r="B58" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="15" t="s">
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1">
-      <c r="B59" s="11" t="s">
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" customHeight="1">
+      <c r="B59" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11" t="s">
+      <c r="C59" s="16"/>
+      <c r="D59" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="15" t="s">
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1">
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" customHeight="1">
       <c r="B60" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="18"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="15" t="s">
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1">
-      <c r="B61" s="11" t="s">
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" customHeight="1">
+      <c r="B61" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="11" t="s">
+      <c r="C61" s="16"/>
+      <c r="D61" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="12"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="15" t="s">
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1">
-      <c r="B62" s="11" t="s">
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" customHeight="1">
+      <c r="B62" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="11" t="s">
+      <c r="C62" s="16"/>
+      <c r="D62" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="15" t="s">
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1">
-      <c r="B63" s="11" t="s">
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" customHeight="1">
+      <c r="B63" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="11" t="s">
+      <c r="C63" s="16"/>
+      <c r="D63" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="15" t="s">
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1">
-      <c r="B64" s="11" t="s">
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" customHeight="1">
+      <c r="B64" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="15" t="s">
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B65" s="11" t="s">
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B65" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="11" t="s">
+      <c r="C65" s="16"/>
+      <c r="D65" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="12"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="15" t="s">
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1">
-      <c r="B66" s="11" t="s">
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" customHeight="1">
+      <c r="B66" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="12"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="15" t="s">
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" customHeight="1">
       <c r="B67" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="18"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="15" t="s">
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B68" s="11" t="s">
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B68" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="15" t="s">
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1">
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" customHeight="1">
       <c r="B69" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="18"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="15" t="s">
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B70" s="11" t="s">
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B70" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="16"/>
+      <c r="D70" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E70" s="12"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="15" t="s">
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B71" s="11" t="s">
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B71" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E71" s="12"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="15" t="s">
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1">
-      <c r="B72" s="11" t="s">
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" customHeight="1">
+      <c r="B72" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="16"/>
+      <c r="D72" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="15" t="s">
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1">
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" customHeight="1">
       <c r="B73" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="18"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
       <c r="K73" s="25" t="s">
         <v>208</v>
       </c>
@@ -6174,24 +6404,24 @@
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
     </row>
-    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B74" s="11" t="s">
+    <row r="74" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B74" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="11" t="s">
+      <c r="C74" s="16"/>
+      <c r="D74" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E74" s="12"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
       <c r="K74" s="25" t="s">
         <v>209</v>
       </c>
@@ -6202,24 +6432,24 @@
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
     </row>
-    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B75" s="11" t="s">
+    <row r="75" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B75" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="11" t="s">
+      <c r="C75" s="16"/>
+      <c r="D75" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E75" s="12"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
       <c r="K75" s="25" t="s">
         <v>210</v>
       </c>
@@ -6230,24 +6460,24 @@
       <c r="P75" s="26"/>
       <c r="Q75" s="26"/>
     </row>
-    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1">
-      <c r="B76" s="11" t="s">
+    <row r="76" spans="2:17" ht="66.75" customHeight="1">
+      <c r="B76" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="11" t="s">
+      <c r="C76" s="16"/>
+      <c r="D76" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
       <c r="K76" s="25" t="s">
         <v>211</v>
       </c>
@@ -6263,19 +6493,19 @@
         <v>119</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
       <c r="K77" s="25" t="s">
         <v>212</v>
       </c>
@@ -6287,25 +6517,25 @@
       <c r="Q77" s="26"/>
     </row>
     <row r="78" spans="2:17" ht="105.75" customHeight="1">
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="11" t="s">
+      <c r="C78" s="16"/>
+      <c r="D78" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
       <c r="K78" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="26"/>
@@ -6315,25 +6545,25 @@
       <c r="Q78" s="26"/>
     </row>
     <row r="79" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="11" t="s">
+      <c r="C79" s="16"/>
+      <c r="D79" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E79" s="12"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="25" t="s">
-        <v>306</v>
       </c>
       <c r="L79" s="26"/>
       <c r="M79" s="26"/>
@@ -6343,23 +6573,23 @@
       <c r="Q79" s="26"/>
     </row>
     <row r="80" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="11" t="s">
+      <c r="C80" s="16"/>
+      <c r="D80" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E80" s="12"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
       <c r="K80" s="25" t="s">
         <v>213</v>
       </c>
@@ -6371,23 +6601,23 @@
       <c r="Q80" s="26"/>
     </row>
     <row r="81" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="16"/>
+      <c r="D81" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="12"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
       <c r="K81" s="25" t="s">
         <v>214</v>
       </c>
@@ -6399,23 +6629,23 @@
       <c r="Q81" s="26"/>
     </row>
     <row r="82" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="11" t="s">
+      <c r="C82" s="16"/>
+      <c r="D82" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E82" s="12"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
       <c r="K82" s="25" t="s">
         <v>215</v>
       </c>
@@ -6426,13 +6656,93 @@
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
     </row>
+    <row r="83" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B83" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+    </row>
+    <row r="84" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B84" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+    </row>
+    <row r="85" spans="2:17" ht="63.75" customHeight="1">
+      <c r="B85" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+    </row>
   </sheetData>
   <autoFilter ref="B3:Q82">
-    <filterColumn colId="0" showButton="0">
-      <filters>
-        <filter val="時間運算"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6444,7 +6754,7 @@
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
-  <mergeCells count="320">
+  <mergeCells count="332">
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="K50:Q50"/>
     <mergeCell ref="G45:J45"/>
@@ -6765,6 +7075,18 @@
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4319D9-68B2-4C9A-9263-F4EE1E252C5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$86</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="321">
   <si>
     <t>題型名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,7 +264,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -282,7 +283,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -301,7 +302,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -320,7 +321,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -339,7 +340,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -358,7 +359,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -377,7 +378,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -396,7 +397,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -415,7 +416,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -434,7 +435,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -453,7 +454,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -472,7 +473,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -491,7 +492,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -510,7 +511,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -529,7 +530,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -548,7 +549,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -567,7 +568,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -586,7 +587,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -605,7 +606,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -624,7 +625,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -643,7 +644,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -662,7 +663,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -681,7 +682,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -700,7 +701,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -719,7 +720,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -738,7 +739,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -757,7 +758,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -776,7 +777,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -795,7 +796,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -814,7 +815,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -833,7 +834,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -852,7 +853,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -871,7 +872,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -890,7 +891,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -979,7 +980,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1006,7 +1007,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1025,7 +1026,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1060,7 +1061,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1079,7 +1080,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1098,7 +1099,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1140,7 +1141,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1159,7 +1160,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1193,7 +1194,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1212,7 +1213,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1238,7 +1239,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1264,7 +1265,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1313,7 +1314,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1340,7 +1341,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1375,7 +1376,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1394,7 +1395,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1421,7 +1422,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1440,7 +1441,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1486,7 +1487,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1505,7 +1506,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1533,7 +1534,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1561,7 +1562,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1616,7 +1617,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1635,7 +1636,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1654,7 +1655,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1673,7 +1674,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1692,7 +1693,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1703,7 +1704,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1724,7 +1725,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1735,7 +1736,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1756,7 +1757,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1767,7 +1768,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1788,7 +1789,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1799,7 +1800,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1824,7 +1825,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1843,7 +1844,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1862,7 +1863,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1881,7 +1882,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1900,7 +1901,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1911,7 +1912,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1936,7 +1937,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1955,7 +1956,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1984,7 +1985,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2003,7 +2004,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2021,7 +2022,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2032,7 +2033,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2051,7 +2052,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2062,7 +2063,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2082,7 +2083,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2101,7 +2102,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2120,7 +2121,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2139,7 +2140,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2158,7 +2159,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2177,7 +2178,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2196,7 +2197,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2756,7 +2757,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2791,7 +2792,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2819,7 +2820,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2830,7 +2831,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2858,7 +2859,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2876,7 +2877,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2887,7 +2888,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2898,7 +2899,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2909,7 +2910,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2948,7 +2949,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3109,7 +3110,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3120,7 +3121,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3131,7 +3132,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3142,7 +3143,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3162,7 +3163,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3173,7 +3174,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3184,7 +3185,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3195,7 +3196,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3215,7 +3216,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3226,7 +3227,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3308,7 +3309,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3346,7 +3347,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3357,7 +3358,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3390,7 +3391,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3401,7 +3402,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3411,7 +3412,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3422,7 +3423,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3443,7 +3444,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3454,7 +3455,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3464,7 +3465,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3475,7 +3476,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3501,7 +3502,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3520,7 +3521,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3538,7 +3539,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3549,7 +3550,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3570,7 +3571,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3581,7 +3582,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3602,7 +3603,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3613,7 +3614,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3634,7 +3635,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3645,7 +3646,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3667,44 +3668,12 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號03
-計算結果最大上限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-出題數量10題
-填空項目的位置隨機設定
-加減法運算題</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3725,29 +3694,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>編號03
+計算結果最大上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+出題數量6題
+填空項目的位置隨機設定
+加減法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  "Identifier": "MU003",
+  "MaximumLimit": 45,
+  "NumberOfQuestions": 6,
+  "QuestionType": 2,
+  "Signs": [ 0, 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "MU004",
   "MaximumLimit": 55,
   "NumberOfQuestions": 10,
   "QuestionType": 2,
   "Signs": [ 0, 1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>編號04
+計算結果最大上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+出題數量10題
+填空項目的位置隨機設定
+加減法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MU004
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★★★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3755,7 +3815,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3763,7 +3823,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3771,14 +3831,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3787,7 +3847,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3795,7 +3855,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3804,7 +3864,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3820,7 +3880,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3829,7 +3889,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3837,7 +3897,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3845,7 +3905,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3853,7 +3913,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4013,10 +4073,22 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4025,17 +4097,41 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4043,45 +4139,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4351,36 +4411,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="17" ySplit="3" topLeftCell="R82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="17" width="8.625" style="1"/>
-    <col min="18" max="18" width="21.125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.625" style="2"/>
+    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="17" width="8.58203125" style="1"/>
+    <col min="18" max="18" width="21.08203125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4398,7 +4459,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4416,2333 +4477,2365 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="23.45" customHeight="1">
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="2:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="2:17" ht="83.45" customHeight="1">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-    </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B6" s="15" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B8" s="15" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B9" s="15" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B11" s="15" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="2:17" ht="54" customHeight="1">
-      <c r="B12" s="27" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="2:17" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="2:17" ht="54" customHeight="1">
-      <c r="B13" s="17" t="s">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="2:17" ht="71.45" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="2:17" ht="71.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="13" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" spans="2:17" ht="71.45" customHeight="1">
-      <c r="B15" s="15" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:17" ht="71.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="13" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-    </row>
-    <row r="16" spans="2:17" ht="71.45" customHeight="1">
-      <c r="B16" s="15" t="s">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="2:17" ht="71.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="13" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-    </row>
-    <row r="17" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B17" s="9" t="s">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="2:17" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="2:17" ht="42.95" customHeight="1">
-      <c r="B18" s="15" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="2:17" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="13" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" customHeight="1">
-      <c r="B19" s="9" t="s">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="13" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" customHeight="1">
-      <c r="B20" s="15" t="s">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="13" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" customHeight="1">
-      <c r="B21" s="15" t="s">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="13" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" customHeight="1">
-      <c r="B22" s="15" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="13" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" customHeight="1">
-      <c r="B23" s="15" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="13" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" customHeight="1">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="13" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" customHeight="1">
-      <c r="B25" s="15" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="13" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" customHeight="1">
-      <c r="B26" s="15" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="13" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" customHeight="1">
-      <c r="B27" s="15" t="s">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="13" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B28" s="9" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="13" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B29" s="15" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="13" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B30" s="15" t="s">
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="13" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B31" s="15" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="13" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.45" customHeight="1">
-      <c r="B32" s="15" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="13" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-    </row>
-    <row r="33" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B33" s="9" t="s">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="13" t="s">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-    </row>
-    <row r="34" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B34" s="15" t="s">
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="13" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="35" spans="2:17" ht="51.75" customHeight="1">
-      <c r="B35" s="15" t="s">
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="13" t="s">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-    </row>
-    <row r="36" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B36" s="15" t="s">
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="13" t="s">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" customHeight="1">
-      <c r="B37" s="9" t="s">
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="13" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B38" s="15" t="s">
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="2:17" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="13" t="s">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" customHeight="1">
-      <c r="B39" s="15" t="s">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="13" t="s">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.45" customHeight="1">
-      <c r="B40" s="15" t="s">
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="2:17" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="13" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" customHeight="1">
-      <c r="B41" s="9" t="s">
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="13" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" customHeight="1">
-      <c r="B42" s="15" t="s">
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="13" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" customHeight="1">
-      <c r="B43" s="15" t="s">
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="13" t="s">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" customHeight="1">
-      <c r="B44" s="15" t="s">
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E44" s="16"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="13" t="s">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B45" s="9" t="s">
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="2:17" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="13" t="s">
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" customHeight="1">
-      <c r="B46" s="15" t="s">
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="13" t="s">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" customHeight="1">
-      <c r="B47" s="15" t="s">
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="13" t="s">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" customHeight="1">
-      <c r="B48" s="15" t="s">
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="15" t="s">
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="13" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B49" s="9" t="s">
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="2:17" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="13" t="s">
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" customHeight="1">
-      <c r="B50" s="15" t="s">
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="13" t="s">
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.45" customHeight="1">
-      <c r="B51" s="9" t="s">
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="2:17" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="13" t="s">
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" customHeight="1">
-      <c r="B52" s="15" t="s">
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="15" t="s">
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="13" t="s">
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B53" s="9" t="s">
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="12"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="13" t="s">
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B54" s="15" t="s">
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="13" t="s">
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B55" s="15" t="s">
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="15" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="13" t="s">
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B56" s="15" t="s">
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="15" t="s">
+      <c r="C56" s="14"/>
+      <c r="D56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="13" t="s">
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B57" s="15" t="s">
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="15" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="13" t="s">
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B58" s="15" t="s">
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="15" t="s">
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="13" t="s">
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" customHeight="1">
-      <c r="B59" s="15" t="s">
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="15" t="s">
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="13" t="s">
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" customHeight="1">
-      <c r="B60" s="9" t="s">
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="13" t="s">
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" customHeight="1">
-      <c r="B61" s="15" t="s">
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="15" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="16"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="13" t="s">
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" customHeight="1">
-      <c r="B62" s="15" t="s">
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="15" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="16"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="13" t="s">
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" customHeight="1">
-      <c r="B63" s="15" t="s">
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="15" t="s">
+      <c r="C63" s="14"/>
+      <c r="D63" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="16"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="13" t="s">
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B64" s="15" t="s">
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="15" t="s">
+      <c r="C64" s="14"/>
+      <c r="D64" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="13" t="s">
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B65" s="15" t="s">
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="14"/>
+      <c r="D65" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="13" t="s">
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" customHeight="1">
-      <c r="B66" s="15" t="s">
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="15" t="s">
+      <c r="C66" s="14"/>
+      <c r="D66" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="13" t="s">
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B67" s="9" t="s">
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="12"/>
+      <c r="D67" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="13" t="s">
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B68" s="15" t="s">
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="15" t="s">
+      <c r="C68" s="14"/>
+      <c r="D68" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="13" t="s">
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" customHeight="1">
-      <c r="B69" s="9" t="s">
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11" t="s">
+      <c r="C69" s="12"/>
+      <c r="D69" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="13" t="s">
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B70" s="15" t="s">
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="13" t="s">
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B71" s="15" t="s">
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="15" t="s">
+      <c r="C71" s="14"/>
+      <c r="D71" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="13" t="s">
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" customHeight="1">
-      <c r="B72" s="15" t="s">
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="15" t="s">
+      <c r="C72" s="14"/>
+      <c r="D72" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="13" t="s">
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B73" s="9" t="s">
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="12"/>
+      <c r="D73" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="25" t="s">
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B74" s="15" t="s">
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+    </row>
+    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="15" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="25" t="s">
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B75" s="15" t="s">
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+    </row>
+    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="15" t="s">
+      <c r="C75" s="14"/>
+      <c r="D75" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E75" s="16"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="25" t="s">
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-    </row>
-    <row r="76" spans="2:17" ht="66.75" customHeight="1">
-      <c r="B76" s="15" t="s">
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+    </row>
+    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="15" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="25" t="s">
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-    </row>
-    <row r="77" spans="2:17" ht="101.25" customHeight="1">
-      <c r="B77" s="9" t="s">
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+    </row>
+    <row r="77" spans="2:17" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="12"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="25" t="s">
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-    </row>
-    <row r="78" spans="2:17" ht="105.75" customHeight="1">
-      <c r="B78" s="15" t="s">
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+    </row>
+    <row r="78" spans="2:17" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="15" t="s">
+      <c r="C78" s="14"/>
+      <c r="D78" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E78" s="16"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="25" t="s">
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B79" s="15" t="s">
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+    </row>
+    <row r="79" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="15" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E79" s="16"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="25" t="s">
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-    </row>
-    <row r="80" spans="2:17" ht="103.5" customHeight="1">
-      <c r="B80" s="15" t="s">
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+    </row>
+    <row r="80" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="14"/>
+      <c r="D80" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E80" s="16"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="25" t="s">
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B81" s="15" t="s">
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+    </row>
+    <row r="81" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="15" t="s">
+      <c r="C81" s="14"/>
+      <c r="D81" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="16"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="25" t="s">
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-    </row>
-    <row r="82" spans="2:17" ht="117.75" customHeight="1">
-      <c r="B82" s="15" t="s">
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+    </row>
+    <row r="82" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="15" t="s">
+      <c r="C82" s="14"/>
+      <c r="D82" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E82" s="16"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="25" t="s">
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-    </row>
-    <row r="83" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B83" s="9" t="s">
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+    </row>
+    <row r="83" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="11" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E83" s="12"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G83" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="13" t="s">
+      <c r="G83" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-    </row>
-    <row r="84" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B84" s="15" t="s">
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="15" t="s">
+      <c r="C84" s="14"/>
+      <c r="D84" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E84" s="16"/>
+      <c r="E84" s="14"/>
       <c r="F84" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="13" t="s">
+      <c r="G84" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-    </row>
-    <row r="85" spans="2:17" ht="63.75" customHeight="1">
-      <c r="B85" s="15" t="s">
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="15" t="s">
+      <c r="C85" s="14"/>
+      <c r="D85" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E85" s="16"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="G85" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q82">
-    <filterColumn colId="0" showButton="0"/>
+  <autoFilter ref="B3:Q86" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0" showButton="0">
+      <filters>
+        <filter val="豎式計算"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6754,17 +6847,309 @@
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
-  <mergeCells count="332">
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
+  <mergeCells count="336">
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
@@ -6789,304 +7174,16 @@
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="K41:Q41"/>
     <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:Q85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4319D9-68B2-4C9A-9263-F4EE1E252C5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$3:$Q$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$12:$R$95</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="301">
   <si>
     <t>題型名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,30 +49,6 @@
   </si>
   <si>
     <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CombinatorialEquation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputingConnection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyLinkage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EqualityComparison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EqualityLinkage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,14 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MathWordProblems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FruitsLinkage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  "Identifier": "FL001",
   "FourOperationsType": 1,
   "MaximumLimit": 20,
@@ -251,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FindNearestNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">FL004
 </t>
@@ -264,7 +227,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -283,7 +246,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -302,7 +265,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -321,7 +284,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -340,7 +303,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -359,7 +322,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,7 +341,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -397,7 +360,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +379,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -435,7 +398,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -454,7 +417,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -473,7 +436,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -492,7 +455,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -511,7 +474,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +493,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -549,7 +512,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -568,7 +531,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -587,7 +550,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -606,7 +569,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -625,7 +588,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +607,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -663,7 +626,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -682,7 +645,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -701,7 +664,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -720,7 +683,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -739,7 +702,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -758,7 +721,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -777,7 +740,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -796,7 +759,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -815,7 +778,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -834,7 +797,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -853,7 +816,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -872,7 +835,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -891,7 +854,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -916,34 +879,6 @@
       </rPr>
       <t>★★</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindTheLaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GapFillingProblems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基礎填空題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HowMuchMore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比多少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LearnCurrency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>認識貨幣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,7 +915,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1007,7 +942,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1026,21 +961,13 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LearnLengthUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>認識長度單位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1061,7 +988,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1080,7 +1007,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1099,7 +1026,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1117,14 +1044,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NumericSorting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數字排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  "Identifier": "NS002",
   "MaximumLimit": 50,
   "NumberOfQuestions": 4,
@@ -1141,7 +1060,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1160,7 +1079,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1177,14 +1096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SchoolClock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時鐘學習板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SC001
 </t>
@@ -1194,7 +1105,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1213,7 +1124,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1239,7 +1150,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1265,7 +1176,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1286,14 +1197,6 @@
   "FourOperationsType": 2,
   "NumberOfQuestions": 6,
   "Reserve": "{\"IsShowSeconds\" : 1}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScoreGoal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射門得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1314,7 +1217,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1341,7 +1244,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1376,7 +1279,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1395,7 +1298,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1405,14 +1308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TimeCalculation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">TC001
 </t>
@@ -1422,7 +1317,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1441,7 +1336,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1487,7 +1382,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1506,7 +1401,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1534,7 +1429,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1562,7 +1457,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1572,42 +1467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算式組合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等式接龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>認識價格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貨幣運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算式比大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算式連一連</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算式應用題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果連連看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到最近的數字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">FNN01
 </t>
@@ -1617,7 +1476,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1636,7 +1495,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1655,7 +1514,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1674,7 +1533,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1693,7 +1552,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1704,7 +1563,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1725,7 +1584,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1736,7 +1595,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1757,7 +1616,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1768,7 +1627,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1789,7 +1648,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1800,7 +1659,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1812,10 +1671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>找規律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">FTL01
 </t>
@@ -1825,7 +1680,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1844,7 +1699,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1863,7 +1718,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1882,7 +1737,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1901,7 +1756,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1912,7 +1767,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1937,7 +1792,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1956,7 +1811,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1972,10 +1827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比多少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">HMM01
 </t>
@@ -1985,7 +1836,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2004,7 +1855,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2022,7 +1873,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2033,7 +1884,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2052,7 +1903,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2063,7 +1914,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2083,7 +1934,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2102,7 +1953,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2121,7 +1972,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2140,7 +1991,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2159,7 +2010,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2178,7 +2029,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2197,7 +2048,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2660,94 +2511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四則運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arithmetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四則運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四則運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arithmetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputingConnection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyLinkage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EqualityComparison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EqualityLinkage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MathWordProblems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FruitsLinkage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindNearestNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找規律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindTheLaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數字排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時鐘學習板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SchoolClock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射門得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScoreGoal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間運算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeCalculation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">LC007
 </t>
@@ -2757,7 +2520,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2792,21 +2555,13 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★★</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貨幣運算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2820,7 +2575,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2831,7 +2586,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2842,14 +2597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算式組合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CombinatorialEquation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">CE002
 </t>
@@ -2859,7 +2606,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2877,7 +2624,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2888,7 +2635,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2899,7 +2646,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2910,7 +2657,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2949,7 +2696,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3110,7 +2857,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3121,7 +2868,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3132,7 +2879,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3143,7 +2890,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3163,7 +2910,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3174,7 +2921,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3185,7 +2932,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3196,7 +2943,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3216,7 +2963,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3227,7 +2974,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3309,7 +3056,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3347,7 +3094,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3358,7 +3105,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3391,7 +3138,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3402,7 +3149,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3412,7 +3159,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3423,7 +3170,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3444,7 +3191,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3455,7 +3202,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3465,7 +3212,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3476,7 +3223,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3485,14 +3232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豎式計算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MathUpright</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">MU001
 </t>
@@ -3502,7 +3241,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3521,7 +3260,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3539,7 +3278,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3550,7 +3289,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3571,7 +3310,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3582,7 +3321,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3603,7 +3342,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3614,7 +3353,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3635,7 +3374,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3646,7 +3385,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3668,7 +3407,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3702,7 +3441,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3713,7 +3452,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3750,7 +3489,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3761,7 +3500,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3783,31 +3522,209 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★★★</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四則運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arithmetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算式組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombinatorialEquation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等式接龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputingConnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認識價格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyLinkage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨幣運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算式比大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EqualityComparison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算式連一連</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EqualityLinkage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算式應用題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MathWordProblems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果連連看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FruitsLinkage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到最近的數字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindNearestNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找規律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindTheLaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基礎填空題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GapFillingProblems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HowMuchMore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認識貨幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LearnCurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認識長度單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LearnLengthUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數字排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericSorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時鐘學習板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolClock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射門得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoreGoal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeCalculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豎式計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MathUpright</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3815,7 +3732,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3823,7 +3740,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3831,14 +3748,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3847,7 +3764,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3855,7 +3772,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3864,7 +3781,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3880,32 +3797,15 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3913,9 +3813,26 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4053,7 +3970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4067,11 +3984,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4079,23 +3996,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4109,41 +4020,256 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4411,37 +4537,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:Q86"/>
+  <dimension ref="B1:R95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
+      <pane xSplit="18" ySplit="12" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="17" width="8.58203125" style="1"/>
-    <col min="18" max="18" width="21.08203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.58203125" style="2"/>
+    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="18" width="8.625" style="1"/>
+    <col min="19" max="19" width="21.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4458,8 +4584,9 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4476,2559 +4603,2920 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="2:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="2:18" collapsed="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="2:18" ht="23.45" customHeight="1">
+      <c r="B12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="4" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="2:18" ht="83.45" hidden="1" customHeight="1">
+      <c r="B13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="27" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B14" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B15" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B16" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="2:18" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B17" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B18" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="2:18" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B19" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="2:18" s="3" customFormat="1" ht="83.45" hidden="1" customHeight="1">
+      <c r="B20" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="2:18" ht="54" customHeight="1">
+      <c r="B21" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="2:17" s="3" customFormat="1" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="2:17" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="2:17" ht="71.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" ht="71.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" ht="71.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="2:17" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="2:18" ht="54" hidden="1" customHeight="1">
+      <c r="B22" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="2:17" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="6" t="s">
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="2:18" ht="71.45" customHeight="1">
+      <c r="B23" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="6" t="s">
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="2:18" ht="71.45" hidden="1" customHeight="1">
+      <c r="B24" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="6" t="s">
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="2:18" ht="71.45" hidden="1" customHeight="1">
+      <c r="B25" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="8" t="s">
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="2:18" ht="42.95" customHeight="1">
+      <c r="B26" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="6" t="s">
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="2:18" ht="42.95" hidden="1" customHeight="1">
+      <c r="B27" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="6" t="s">
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="2:18" ht="84" customHeight="1">
+      <c r="B28" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="6" t="s">
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="2:18" ht="84" hidden="1" customHeight="1">
+      <c r="B29" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6" t="s">
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="2:18" ht="84" hidden="1" customHeight="1">
+      <c r="B30" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="6" t="s">
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="2:18" ht="84" hidden="1" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="2:17" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="8" t="s">
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="2:18" ht="84" hidden="1" customHeight="1">
+      <c r="B32" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="6" t="s">
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="2:18" ht="72" hidden="1" customHeight="1">
+      <c r="B33" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="6" t="s">
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="2:18" ht="72" hidden="1" customHeight="1">
+      <c r="B34" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="L34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="2:17" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="6" t="s">
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="2:18" ht="72" customHeight="1">
+      <c r="B35" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="L35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="8" t="s">
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="2:18" ht="72" hidden="1" customHeight="1">
+      <c r="B36" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="L36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="6" t="s">
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="2:18" ht="83.45" hidden="1" customHeight="1">
+      <c r="B37" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="2:17" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="6" t="s">
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="2:18" ht="83.45" hidden="1" customHeight="1">
+      <c r="B38" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="2:17" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="8" t="s">
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="2:18" ht="83.45" hidden="1" customHeight="1">
+      <c r="B39" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="L39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="2:17" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="6" t="s">
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="2:18" ht="83.45" hidden="1" customHeight="1">
+      <c r="B40" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="15" t="s">
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="2:18" ht="83.45" customHeight="1">
+      <c r="B41" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H42" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="2:18" ht="52.5" hidden="1" customHeight="1">
+      <c r="B42" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="2:18" ht="53.25" hidden="1" customHeight="1">
+      <c r="B43" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H44" s="10"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="2:18" ht="51.75" hidden="1" customHeight="1">
+      <c r="B44" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="K44" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="2:17" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="H45" s="10"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="2:18" ht="53.25" customHeight="1">
+      <c r="B45" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="L45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="2:18" ht="69" hidden="1" customHeight="1">
+      <c r="B46" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
-      <c r="K46" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="L46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H47" s="10"/>
+      <c r="R46" s="10"/>
+    </row>
+    <row r="47" spans="2:18" ht="68.45" hidden="1" customHeight="1">
+      <c r="B47" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="L47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H48" s="10"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="2:18" ht="67.5" customHeight="1">
+      <c r="B48" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="2:17" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H49" s="10"/>
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="2:18" ht="68.45" hidden="1" customHeight="1">
+      <c r="B49" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="L49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H50" s="10"/>
+      <c r="R49" s="10"/>
+    </row>
+    <row r="50" spans="2:18" ht="69" hidden="1" customHeight="1">
+      <c r="B50" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-      <c r="K50" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="2:17" ht="41.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H51" s="10"/>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="2:18" ht="69" hidden="1" customHeight="1">
+      <c r="B51" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="2:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H52" s="10"/>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="2:18" ht="69" customHeight="1">
+      <c r="B52" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="10"/>
+      <c r="R52" s="10"/>
+    </row>
+    <row r="53" spans="2:18" ht="69" hidden="1" customHeight="1">
+      <c r="B53" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="L53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="10"/>
+      <c r="R53" s="10"/>
+    </row>
+    <row r="54" spans="2:18" ht="41.45" hidden="1" customHeight="1">
+      <c r="B54" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
-      <c r="K54" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="L54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="10"/>
+      <c r="R54" s="10"/>
+    </row>
+    <row r="55" spans="2:18" ht="42" customHeight="1">
+      <c r="B55" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
-      <c r="K55" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="L55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H56" s="10"/>
+      <c r="R55" s="10"/>
+    </row>
+    <row r="56" spans="2:18" ht="42" hidden="1" customHeight="1">
+      <c r="B56" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="L56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H57" s="10"/>
+      <c r="R56" s="10"/>
+    </row>
+    <row r="57" spans="2:18" ht="42" hidden="1" customHeight="1">
+      <c r="B57" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
-      <c r="K57" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" s="10"/>
+      <c r="R57" s="10"/>
+    </row>
+    <row r="58" spans="2:18" ht="41.45" customHeight="1">
+      <c r="B58" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
-      <c r="K58" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="2:17" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="10"/>
+      <c r="R58" s="10"/>
+    </row>
+    <row r="59" spans="2:18" ht="42" hidden="1" customHeight="1">
+      <c r="B59" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
-      <c r="K59" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="2:17" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H60" s="10"/>
+      <c r="R59" s="10"/>
+    </row>
+    <row r="60" spans="2:18" ht="41.45" customHeight="1">
+      <c r="B60" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="31"/>
+      <c r="F60" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
-      <c r="K60" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="L60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H61" s="10"/>
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="2:18" ht="42" hidden="1" customHeight="1">
+      <c r="B61" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
-      <c r="K61" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="L61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H62" s="10"/>
+      <c r="R61" s="10"/>
+    </row>
+    <row r="62" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B62" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="2:17" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H63" s="10"/>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B63" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
-      <c r="K63" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H64" s="10"/>
+      <c r="R63" s="10"/>
+    </row>
+    <row r="64" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B64" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
-      <c r="K64" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H65" s="10"/>
+      <c r="R64" s="10"/>
+    </row>
+    <row r="65" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B65" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
-      <c r="K65" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="2:17" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H66" s="10"/>
+      <c r="R65" s="10"/>
+    </row>
+    <row r="66" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B66" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
-      <c r="K66" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H67" s="10"/>
+      <c r="R66" s="10"/>
+    </row>
+    <row r="67" spans="2:18" ht="65.25" hidden="1" customHeight="1">
+      <c r="B67" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
-      <c r="K67" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H68" s="10"/>
+      <c r="R67" s="10"/>
+    </row>
+    <row r="68" spans="2:18" ht="65.25" hidden="1" customHeight="1">
+      <c r="B68" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
-      <c r="K68" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="2:17" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H69" s="10"/>
+      <c r="R68" s="10"/>
+    </row>
+    <row r="69" spans="2:18" ht="64.5" hidden="1" customHeight="1">
+      <c r="B69" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="F69" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
-      <c r="K69" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="10"/>
+      <c r="R69" s="10"/>
+    </row>
+    <row r="70" spans="2:18" ht="63" hidden="1" customHeight="1">
+      <c r="B70" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H71" s="10"/>
+      <c r="R70" s="10"/>
+    </row>
+    <row r="71" spans="2:18" ht="63" hidden="1" customHeight="1">
+      <c r="B71" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
-      <c r="K71" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="2:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H72" s="10"/>
+      <c r="R71" s="10"/>
+    </row>
+    <row r="72" spans="2:18" ht="63" hidden="1" customHeight="1">
+      <c r="B72" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
-      <c r="K72" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="2:17" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H73" s="10"/>
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="2:18" ht="73.5" customHeight="1">
+      <c r="B73" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
-      <c r="K73" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-    </row>
-    <row r="74" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H74" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+    </row>
+    <row r="74" spans="2:18" ht="66.75" hidden="1" customHeight="1">
+      <c r="B74" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
-      <c r="K74" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-    </row>
-    <row r="75" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H75" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+    </row>
+    <row r="75" spans="2:18" ht="73.5" hidden="1" customHeight="1">
+      <c r="B75" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
-      <c r="K75" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-    </row>
-    <row r="76" spans="2:17" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H76" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+    </row>
+    <row r="76" spans="2:18" ht="53.25" customHeight="1">
+      <c r="B76" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
-      <c r="K76" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-    </row>
-    <row r="77" spans="2:17" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H77" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+    </row>
+    <row r="77" spans="2:18" ht="52.5" hidden="1" customHeight="1">
+      <c r="B77" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="F77" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
-      <c r="K77" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-    </row>
-    <row r="78" spans="2:17" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H78" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+    </row>
+    <row r="78" spans="2:18" ht="53.25" customHeight="1">
+      <c r="B78" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
-      <c r="K78" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-    </row>
-    <row r="79" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="H79" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+    </row>
+    <row r="79" spans="2:18" ht="52.5" hidden="1" customHeight="1">
+      <c r="B79" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="20"/>
+      <c r="F79" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
-      <c r="K79" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-    </row>
-    <row r="80" spans="2:17" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H80" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+    </row>
+    <row r="80" spans="2:18" ht="52.5" hidden="1" customHeight="1">
+      <c r="B80" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E80" s="20"/>
+      <c r="F80" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
-      <c r="K80" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-    </row>
-    <row r="81" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H81" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+    </row>
+    <row r="81" spans="2:18" ht="52.5" hidden="1" customHeight="1">
+      <c r="B81" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="20"/>
+      <c r="F81" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
-      <c r="K81" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-    </row>
-    <row r="82" spans="2:17" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H82" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+    </row>
+    <row r="82" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B82" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
-      <c r="K82" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-    </row>
-    <row r="83" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="H83" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+    </row>
+    <row r="83" spans="2:18" ht="66.75" hidden="1" customHeight="1">
+      <c r="B83" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
-      <c r="K83" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-    </row>
-    <row r="84" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="H84" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+    </row>
+    <row r="84" spans="2:18" ht="66.75" customHeight="1">
+      <c r="B84" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
-      <c r="K84" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-    </row>
-    <row r="85" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="H85" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+    </row>
+    <row r="85" spans="2:18" ht="66.75" hidden="1" customHeight="1">
+      <c r="B85" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
-      <c r="K85" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-    </row>
-    <row r="86" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="H86" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+    </row>
+    <row r="86" spans="2:18" ht="101.25" hidden="1" customHeight="1">
+      <c r="B86" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" s="31"/>
+      <c r="F86" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
-      <c r="K86" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+    </row>
+    <row r="87" spans="2:18" ht="105.75" hidden="1" customHeight="1">
+      <c r="B87" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" s="20"/>
+      <c r="F87" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+    </row>
+    <row r="88" spans="2:18" ht="103.5" customHeight="1">
+      <c r="B88" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+    </row>
+    <row r="89" spans="2:18" ht="103.5" hidden="1" customHeight="1">
+      <c r="B89" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" s="20"/>
+      <c r="F89" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+    </row>
+    <row r="90" spans="2:18" ht="117.75" hidden="1" customHeight="1">
+      <c r="B90" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+    </row>
+    <row r="91" spans="2:18" ht="117.75" hidden="1" customHeight="1">
+      <c r="B91" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+    </row>
+    <row r="92" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B92" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E92" s="31"/>
+      <c r="F92" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+    </row>
+    <row r="93" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B93" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+    </row>
+    <row r="94" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B94" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+    </row>
+    <row r="95" spans="2:18" ht="63.75" hidden="1" customHeight="1">
+      <c r="B95" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" s="20"/>
+      <c r="D95" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q86" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0" showButton="0">
+  <autoFilter ref="B12:R95">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="4">
       <filters>
-        <filter val="豎式計算"/>
+        <filter val="是"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="336">
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="K86:Q86"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:Q85"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:R59"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:R54"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:R57"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:R55"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:R56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:R58"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:R52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:R53"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:R50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="L17:R17"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="L23:R23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:R29"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -7036,33 +7524,148 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:R49"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:R60"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:R62"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:R63"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:R64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:R65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:R68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:R69"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:R75"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:R66"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:R70"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:R71"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:R72"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:R73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:R74"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:R76"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:R77"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:R78"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:R81"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:R79"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:R80"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:R82"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:R85"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:R83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:R84"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:R86"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:R88"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:R91"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:R90"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:C30"/>
@@ -7071,121 +7674,82 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:R92"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:R95"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:R93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:R94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F95">
+      <formula1>$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
+      <formula1>$B$2:$B$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25A6E7-268B-42B9-9704-1D8779BDEB00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$12:$R$95</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -228,7 +227,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -247,7 +246,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -266,7 +265,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -285,7 +284,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -304,7 +303,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -323,7 +322,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -342,7 +341,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -361,7 +360,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -380,7 +379,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -399,7 +398,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -418,7 +417,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -437,7 +436,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -456,7 +455,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -475,7 +474,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -494,7 +493,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -513,7 +512,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -532,7 +531,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +550,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -570,7 +569,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -589,7 +588,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -608,7 +607,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -627,7 +626,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -646,7 +645,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -665,7 +664,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -684,7 +683,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -703,7 +702,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -722,7 +721,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -741,7 +740,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -760,7 +759,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -779,7 +778,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -798,7 +797,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -817,7 +816,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -836,7 +835,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -855,7 +854,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -916,7 +915,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -943,7 +942,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -962,7 +961,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -989,7 +988,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1008,7 +1007,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1027,7 +1026,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1061,7 +1060,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1080,7 +1079,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1106,7 +1105,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1125,7 +1124,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1151,7 +1150,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1177,7 +1176,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1218,7 +1217,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1245,7 +1244,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1280,7 +1279,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1299,7 +1298,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1318,7 +1317,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1337,7 +1336,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1383,7 +1382,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1402,7 +1401,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1430,7 +1429,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1458,7 +1457,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1477,7 +1476,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1496,7 +1495,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1515,7 +1514,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1534,7 +1533,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1553,7 +1552,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1564,7 +1563,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1585,7 +1584,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1596,7 +1595,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1617,7 +1616,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1628,7 +1627,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1649,7 +1648,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1660,7 +1659,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1681,7 +1680,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1700,7 +1699,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1719,7 +1718,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1738,7 +1737,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1757,7 +1756,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1768,7 +1767,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1793,7 +1792,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1812,7 +1811,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1837,7 +1836,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1856,7 +1855,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1874,7 +1873,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1885,7 +1884,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1904,7 +1903,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1915,7 +1914,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1935,7 +1934,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1954,7 +1953,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1973,7 +1972,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1992,7 +1991,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2011,7 +2010,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2030,7 +2029,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2049,7 +2048,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2438,12 +2437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  "Identifier": "GFP02",
-  "NumberOfQuestions": 10,
-  "Reserve": "{\"Level\" : '3,4,5'}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  "Identifier": "HMM01",
   "MaximumLimit": 10,
   "NumberOfQuestions": 4</t>
@@ -2521,7 +2514,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2556,7 +2549,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2576,7 +2569,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2587,7 +2580,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2607,7 +2600,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2625,7 +2618,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2636,7 +2629,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2647,7 +2640,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2658,7 +2651,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2697,7 +2690,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2858,7 +2851,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2869,7 +2862,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2880,7 +2873,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2891,7 +2884,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2911,7 +2904,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2922,7 +2915,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2933,7 +2926,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2944,7 +2937,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2964,7 +2957,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2975,7 +2968,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3050,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3095,7 +3088,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3106,7 +3099,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3139,7 +3132,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3150,7 +3143,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3160,7 +3153,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3171,7 +3164,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3185,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3203,7 +3196,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3213,7 +3206,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3224,7 +3217,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3242,7 +3235,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3261,7 +3254,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3279,7 +3272,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3290,7 +3283,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3311,7 +3304,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3322,7 +3315,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3343,7 +3336,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3354,7 +3347,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3375,7 +3368,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3386,7 +3379,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3408,7 +3401,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3442,7 +3435,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3453,7 +3446,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3490,7 +3483,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3501,7 +3494,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3523,7 +3516,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3708,24 +3701,30 @@
   </si>
   <si>
     <t>MathUpright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "GFP02",
+  "NumberOfQuestions": 10,
+  "Reserve": "{\"Level\" : '4,5'}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3733,7 +3732,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3741,7 +3740,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3749,14 +3748,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3765,7 +3764,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3773,7 +3772,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3789,7 +3788,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3797,7 +3796,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3805,7 +3804,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3814,7 +3813,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3823,7 +3822,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3832,7 +3831,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3980,12 +3979,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3998,11 +3991,53 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4016,2273 +4051,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="242">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="83">
     <dxf>
       <font>
         <b/>
@@ -7713,36 +5486,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="12" topLeftCell="S94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="12" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="11.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.58203125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="8.58203125" style="1"/>
-    <col min="19" max="19" width="21.08203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.58203125" style="2"/>
+    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="18" width="8.625" style="1"/>
+    <col min="19" max="19" width="21.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7761,7 +5534,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7780,9 +5553,9 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7801,9 +5574,9 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7822,7 +5595,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7841,7 +5614,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -7860,7 +5633,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7879,7 +5652,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -7898,7 +5671,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -7917,7 +5690,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" hidden="1" outlineLevel="1">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -7936,7 +5709,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="2:18" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" collapsed="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -7955,2612 +5728,2612 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:18" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:18" ht="23.45" customHeight="1">
+      <c r="B12" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+    </row>
+    <row r="13" spans="2:18" ht="83.45" customHeight="1">
+      <c r="B13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-    </row>
-    <row r="14" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="H13" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B14" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="H14" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="H15" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B16" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="H16" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B18" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="13" t="s">
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="19" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
+      <c r="H19" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="H20" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="2:18" ht="54" customHeight="1">
+      <c r="B21" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="2:18" ht="54" customHeight="1">
+      <c r="B22" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="2:18" ht="71.45" customHeight="1">
+      <c r="B23" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="2:18" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="2:18" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
+      <c r="H23" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="2:18" ht="71.45" customHeight="1">
+      <c r="B24" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="2:18" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="H24" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="2:18" ht="71.45" customHeight="1">
+      <c r="B25" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="2:18" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="H25" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="2:18" ht="42.95" customHeight="1">
+      <c r="B26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-    </row>
-    <row r="27" spans="2:18" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="2:18" ht="42.95" customHeight="1">
+      <c r="B27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7" t="s">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="2:18" ht="84" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7" t="s">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-    </row>
-    <row r="29" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="2:18" ht="84" customHeight="1">
+      <c r="B29" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="7" t="s">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="2:18" ht="84" customHeight="1">
+      <c r="B30" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="7" t="s">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="2:18" ht="84" customHeight="1">
+      <c r="B31" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7" t="s">
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="2:18" ht="84" customHeight="1">
+      <c r="B32" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="2:18" ht="72" customHeight="1">
+      <c r="B33" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7" t="s">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="2:18" ht="72" customHeight="1">
+      <c r="B34" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="2:18" ht="72" customHeight="1">
+      <c r="B35" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7" t="s">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-    </row>
-    <row r="36" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="2:18" ht="72" customHeight="1">
+      <c r="B36" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" s="24"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7" t="s">
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="2:18" ht="83.45" customHeight="1">
+      <c r="B37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="7" t="s">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-    </row>
-    <row r="38" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="2:18" ht="83.45" customHeight="1">
+      <c r="B38" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="7" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-    </row>
-    <row r="39" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="2:18" ht="83.45" customHeight="1">
+      <c r="B39" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="7" t="s">
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-    </row>
-    <row r="40" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="2:18" ht="83.45" customHeight="1">
+      <c r="B40" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="7" t="s">
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-    </row>
-    <row r="41" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="2:18" ht="83.45" customHeight="1">
+      <c r="B41" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="7" t="s">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-    </row>
-    <row r="42" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="2:18" ht="52.5" customHeight="1">
+      <c r="B42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-    </row>
-    <row r="43" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="s">
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="2:18" ht="53.25" customHeight="1">
+      <c r="B43" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-    </row>
-    <row r="44" spans="2:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="H43" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="2:18" ht="51.75" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-    </row>
-    <row r="45" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+    </row>
+    <row r="45" spans="2:18" ht="53.25" customHeight="1">
+      <c r="B45" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E45" s="24"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-    </row>
-    <row r="46" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+    </row>
+    <row r="46" spans="2:18" ht="69" customHeight="1">
+      <c r="B46" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="7" t="s">
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-    </row>
-    <row r="47" spans="2:18" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30" t="s">
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+    </row>
+    <row r="47" spans="2:18" ht="68.45" customHeight="1">
+      <c r="B47" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="7" t="s">
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-    </row>
-    <row r="48" spans="2:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+    </row>
+    <row r="48" spans="2:18" ht="67.5" customHeight="1">
+      <c r="B48" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="24"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="7" t="s">
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-    </row>
-    <row r="49" spans="2:18" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+    </row>
+    <row r="49" spans="2:18" ht="68.45" customHeight="1">
+      <c r="B49" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E49" s="24"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="7" t="s">
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-    </row>
-    <row r="50" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+    </row>
+    <row r="50" spans="2:18" ht="69" customHeight="1">
+      <c r="B50" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="7" t="s">
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-    </row>
-    <row r="51" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="30" t="s">
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+    </row>
+    <row r="51" spans="2:18" ht="69" customHeight="1">
+      <c r="B51" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="7" t="s">
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-    </row>
-    <row r="52" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+    </row>
+    <row r="52" spans="2:18" ht="69" customHeight="1">
+      <c r="B52" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E52" s="24"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="7" t="s">
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-    </row>
-    <row r="53" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+    </row>
+    <row r="53" spans="2:18" ht="69" customHeight="1">
+      <c r="B53" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E53" s="24"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="7" t="s">
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-    </row>
-    <row r="54" spans="2:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+    </row>
+    <row r="54" spans="2:18" ht="41.45" customHeight="1">
+      <c r="B54" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="10"/>
       <c r="F54" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-    </row>
-    <row r="55" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="30" t="s">
+      <c r="H54" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+    </row>
+    <row r="55" spans="2:18" ht="42" customHeight="1">
+      <c r="B55" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E55" s="24"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-    </row>
-    <row r="56" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+      <c r="H55" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+    </row>
+    <row r="56" spans="2:18" ht="42" customHeight="1">
+      <c r="B56" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="7" t="s">
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-    </row>
-    <row r="57" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+    </row>
+    <row r="57" spans="2:18" ht="42" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E57" s="24"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="7" t="s">
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-    </row>
-    <row r="58" spans="2:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+    </row>
+    <row r="58" spans="2:18" ht="41.45" customHeight="1">
+      <c r="B58" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-    </row>
-    <row r="59" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="30" t="s">
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+    </row>
+    <row r="59" spans="2:18" ht="42" customHeight="1">
+      <c r="B59" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E59" s="24"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="7" t="s">
+      <c r="H59" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-    </row>
-    <row r="60" spans="2:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+    </row>
+    <row r="60" spans="2:18" ht="41.45" customHeight="1">
+      <c r="B60" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="7" t="s">
+      <c r="H60" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-    </row>
-    <row r="61" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="30" t="s">
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+    </row>
+    <row r="61" spans="2:18" ht="42" customHeight="1">
+      <c r="B61" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E61" s="24"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="7" t="s">
+      <c r="H61" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-    </row>
-    <row r="62" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+    </row>
+    <row r="62" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B62" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="7" t="s">
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-    </row>
-    <row r="63" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="30" t="s">
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+    </row>
+    <row r="63" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B63" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E63" s="24"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="7" t="s">
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-    </row>
-    <row r="64" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="30" t="s">
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+    </row>
+    <row r="64" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B64" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E64" s="24"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-    </row>
-    <row r="65" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+    </row>
+    <row r="65" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B65" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E65" s="24"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G65" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-    </row>
-    <row r="66" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="30" t="s">
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+    </row>
+    <row r="66" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B66" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E66" s="24"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="7" t="s">
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-    </row>
-    <row r="67" spans="2:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="30" t="s">
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+    </row>
+    <row r="67" spans="2:18" ht="65.25" customHeight="1">
+      <c r="B67" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E67" s="24"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="7" t="s">
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-    </row>
-    <row r="68" spans="2:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="30" t="s">
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+    </row>
+    <row r="68" spans="2:18" ht="65.25" customHeight="1">
+      <c r="B68" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E68" s="24"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="7" t="s">
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-    </row>
-    <row r="69" spans="2:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+    </row>
+    <row r="69" spans="2:18" ht="64.5" customHeight="1">
+      <c r="B69" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="7" t="s">
+      <c r="H69" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-    </row>
-    <row r="70" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="30" t="s">
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+    </row>
+    <row r="70" spans="2:18" ht="63" customHeight="1">
+      <c r="B70" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E70" s="24"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="7" t="s">
+      <c r="H70" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-    </row>
-    <row r="71" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="30" t="s">
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+    </row>
+    <row r="71" spans="2:18" ht="63" customHeight="1">
+      <c r="B71" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E71" s="24"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="7" t="s">
+      <c r="H71" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-    </row>
-    <row r="72" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="30" t="s">
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+    </row>
+    <row r="72" spans="2:18" ht="63" customHeight="1">
+      <c r="B72" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E72" s="24"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H72" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="7" t="s">
+      <c r="H72" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-    </row>
-    <row r="73" spans="2:18" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="30" t="s">
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+    </row>
+    <row r="73" spans="2:18" ht="73.5" customHeight="1">
+      <c r="B73" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E73" s="24"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="7" t="s">
+      <c r="H73" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-    </row>
-    <row r="74" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="30" t="s">
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+    </row>
+    <row r="74" spans="2:18" ht="66.75" customHeight="1">
+      <c r="B74" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E74" s="24"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="7" t="s">
+      <c r="H74" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-    </row>
-    <row r="75" spans="2:18" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="30" t="s">
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+    </row>
+    <row r="75" spans="2:18" ht="73.5" customHeight="1">
+      <c r="B75" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E75" s="24"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="7" t="s">
+      <c r="H75" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-    </row>
-    <row r="76" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+    </row>
+    <row r="76" spans="2:18" ht="53.25" customHeight="1">
+      <c r="B76" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="7" t="s">
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-    </row>
-    <row r="77" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="30" t="s">
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+    </row>
+    <row r="77" spans="2:18" ht="52.5" customHeight="1">
+      <c r="B77" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E77" s="24"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="7" t="s">
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-    </row>
-    <row r="78" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+    </row>
+    <row r="78" spans="2:18" ht="53.25" customHeight="1">
+      <c r="B78" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="10"/>
       <c r="F78" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="7" t="s">
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-    </row>
-    <row r="79" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="30" t="s">
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+    </row>
+    <row r="79" spans="2:18" ht="52.5" customHeight="1">
+      <c r="B79" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E79" s="24"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="7" t="s">
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-    </row>
-    <row r="80" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="23" t="s">
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+    </row>
+    <row r="80" spans="2:18" ht="52.5" customHeight="1">
+      <c r="B80" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" s="24"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="7" t="s">
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-    </row>
-    <row r="81" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="23" t="s">
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+    </row>
+    <row r="81" spans="2:18" ht="52.5" customHeight="1">
+      <c r="B81" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E81" s="24"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="7" t="s">
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-    </row>
-    <row r="82" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+    </row>
+    <row r="82" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B82" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E82" s="12"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="13" t="s">
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-    </row>
-    <row r="83" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="30" t="s">
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+    </row>
+    <row r="83" spans="2:18" ht="66.75" customHeight="1">
+      <c r="B83" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E83" s="24"/>
+      <c r="E83" s="14"/>
       <c r="F83" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="13" t="s">
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-    </row>
-    <row r="84" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+    </row>
+    <row r="84" spans="2:18" ht="66.75" customHeight="1">
+      <c r="B84" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E84" s="24"/>
+      <c r="E84" s="14"/>
       <c r="F84" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="13" t="s">
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-    </row>
-    <row r="85" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="23" t="s">
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+    </row>
+    <row r="85" spans="2:18" ht="66.75" customHeight="1">
+      <c r="B85" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E85" s="24"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="13" t="s">
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-    </row>
-    <row r="86" spans="2:18" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+    </row>
+    <row r="86" spans="2:18" ht="101.25" customHeight="1">
+      <c r="B86" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" s="12"/>
+      <c r="E86" s="10"/>
       <c r="F86" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="13" t="s">
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-    </row>
-    <row r="87" spans="2:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="30" t="s">
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+    </row>
+    <row r="87" spans="2:18" ht="105.75" customHeight="1">
+      <c r="B87" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="24"/>
+      <c r="E87" s="14"/>
       <c r="F87" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-    </row>
-    <row r="88" spans="2:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="30" t="s">
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+    </row>
+    <row r="88" spans="2:18" ht="103.5" customHeight="1">
+      <c r="B88" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E88" s="24"/>
+      <c r="E88" s="14"/>
       <c r="F88" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-    </row>
-    <row r="89" spans="2:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="30" t="s">
+      <c r="H88" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+    </row>
+    <row r="89" spans="2:18" ht="103.5" customHeight="1">
+      <c r="B89" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="24"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="13" t="s">
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-    </row>
-    <row r="90" spans="2:18" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="30" t="s">
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+    </row>
+    <row r="90" spans="2:18" ht="117.75" customHeight="1">
+      <c r="B90" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" s="24"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="13" t="s">
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-    </row>
-    <row r="91" spans="2:18" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="30" t="s">
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+    </row>
+    <row r="91" spans="2:18" ht="117.75" customHeight="1">
+      <c r="B91" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" s="24"/>
+      <c r="E91" s="14"/>
       <c r="F91" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="13" t="s">
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-    </row>
-    <row r="92" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+    </row>
+    <row r="92" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B92" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E92" s="12"/>
+      <c r="E92" s="10"/>
       <c r="F92" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G92" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+    </row>
+    <row r="93" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B93" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H93" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="7" t="s">
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-    </row>
-    <row r="93" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="30" t="s">
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+    </row>
+    <row r="94" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B94" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H93" s="7" t="s">
+      <c r="E94" s="14"/>
+      <c r="F94" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-    </row>
-    <row r="94" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="23" t="s">
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+    </row>
+    <row r="95" spans="2:18" ht="63.75" customHeight="1">
+      <c r="B95" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="H94" s="7" t="s">
+      <c r="E95" s="14"/>
+      <c r="F95" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H95" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-    </row>
-    <row r="95" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H95" s="7" t="s">
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:R95" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B12:R95">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -10574,22 +8347,302 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="336">
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:R92"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:R95"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:R93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:R94"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:R59"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:R54"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:R57"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:R55"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:R56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:R58"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:R52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:R53"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:R50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:R29"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:R49"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:R60"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:R62"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:R63"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:R64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:R65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:R68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:R69"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:R75"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:R66"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:R70"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:R71"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:R72"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:R73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:R74"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:R76"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:R77"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:R78"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:R81"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:R79"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:R80"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:R82"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:R85"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:R83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:R84"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:R86"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:R88"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:R91"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:R90"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B22:C22"/>
@@ -10614,724 +8667,444 @@
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:R86"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:R88"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:R91"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:R89"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:R90"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:R82"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:R85"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:R83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:R84"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:R77"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:R78"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:R81"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:R79"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:R80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:R68"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:R69"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:R75"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:R66"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:R70"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:R71"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:R72"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:R73"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:R74"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:R76"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:R63"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:R64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:R65"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:R49"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:R60"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:R62"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:R29"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="L51:R51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:R58"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:R52"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:R53"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:R50"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:R59"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:R54"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:R57"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:R55"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:R56"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:R92"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:R95"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:R93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:R94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="165" priority="82">
+    <cfRule type="expression" dxfId="82" priority="82">
       <formula>$F$18="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="164" priority="83">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>$F$19="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="163" priority="81">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>$F$20="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="162" priority="80">
+    <cfRule type="expression" dxfId="79" priority="80">
       <formula>$F$17="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="161" priority="79">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>$F$16="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="160" priority="78">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>$F$15="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="159" priority="77">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>$F$14="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="158" priority="76">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>$F$13="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="157" priority="75">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>$F$33="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="156" priority="74">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>$F$34="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="155" priority="73">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>$F$35="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="154" priority="72">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>$F$36="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="153" priority="71">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$F$37="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="152" priority="70">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$F$38="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="151" priority="69">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>$F$39="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="150" priority="68">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>$F$40="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="149" priority="67">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>$F$41="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="148" priority="66">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>$F$21="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="147" priority="65">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>$F$22="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="146" priority="64">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>$F$42="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="145" priority="63">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>$F$43="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="144" priority="62">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>$F$44="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="143" priority="61">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>$F$45="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="142" priority="60">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>$F$50="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="141" priority="59">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$F$51="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="140" priority="58">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>$F$52="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="139" priority="57">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$F$53="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="138" priority="56">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$F$54="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="137" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$F$55="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="136" priority="54">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>$F$56="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="135" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$F$57="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="134" priority="52">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>$F$46="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="133" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>$F$47="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="132" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$F$48="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="131" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>$F$49="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="expression" dxfId="130" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$F$76="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="expression" dxfId="129" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>$F$77="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="expression" dxfId="128" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$F$78="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="expression" dxfId="127" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$F$79="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="expression" dxfId="126" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$F$80="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="125" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$F$81="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="124" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$F$92="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G93">
-    <cfRule type="expression" dxfId="123" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$F$93="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94">
-    <cfRule type="expression" dxfId="122" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$F$94="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="expression" dxfId="121" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$F$95="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="83" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$F$23="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="84" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$F$24="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="85" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$F$25="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="86" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$F$26="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="87" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$F$27="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="88" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$F$28="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="89" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$F$29="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="90" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$F$30="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="91" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$F$31="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="92" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$F$32="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="expression" dxfId="93" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$F$58="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="expression" dxfId="94" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$F$59="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="95" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$F$60="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="expression" dxfId="96" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$F$61="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="97" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$F$62="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="98" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$F$63="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="99" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$F$64="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="100" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$F$65="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="101" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$F$66="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="expression" dxfId="102" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$F$67="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="expression" dxfId="103" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$F$68="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="expression" dxfId="104" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$F$69="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="105" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$F$70="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="expression" dxfId="106" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$F$71="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="expression" dxfId="107" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$F$72="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="expression" dxfId="108" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$F$73="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="109" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$F$74="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="expression" dxfId="110" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$F$75="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="expression" dxfId="111" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$F$82="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$F$83="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="expression" dxfId="113" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$F$84="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="expression" dxfId="114" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$F$85="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="expression" dxfId="115" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$F$86="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="116" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$F$87="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="expression" dxfId="117" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$F$88="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="118" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F$89="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="expression" dxfId="119" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F$90="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91">
-    <cfRule type="expression" dxfId="120" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$91="是"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F95" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F95">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568C42F0-B834-4614-AF89-7A8AD7E5CC00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
@@ -13,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$12:$R$95</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -227,7 +228,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -246,7 +247,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -265,7 +266,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -284,7 +285,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -303,7 +304,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -322,7 +323,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -341,7 +342,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -360,7 +361,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -379,7 +380,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -398,7 +399,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -417,7 +418,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -436,7 +437,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -455,7 +456,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -474,7 +475,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -493,7 +494,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -512,7 +513,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -531,7 +532,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -550,7 +551,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -569,7 +570,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -588,7 +589,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -607,7 +608,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -626,7 +627,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -645,7 +646,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -664,7 +665,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -683,7 +684,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -702,7 +703,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -721,7 +722,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -740,7 +741,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -759,7 +760,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -778,7 +779,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -797,7 +798,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -816,7 +817,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -835,7 +836,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -854,7 +855,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -915,7 +916,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -942,7 +943,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -961,7 +962,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -988,7 +989,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1007,7 +1008,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1026,7 +1027,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1060,7 +1061,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1079,7 +1080,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1105,7 +1106,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1124,7 +1125,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1150,7 +1151,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1176,7 +1177,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1217,7 +1218,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1244,7 +1245,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1279,7 +1280,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1298,7 +1299,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1317,7 +1318,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1336,7 +1337,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1382,7 +1383,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1401,7 +1402,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1429,7 +1430,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1457,7 +1458,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1476,7 +1477,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1495,7 +1496,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1514,7 +1515,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1533,7 +1534,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1552,7 +1553,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1563,7 +1564,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1584,7 +1585,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1595,7 +1596,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1616,7 +1617,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1627,7 +1628,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1648,7 +1649,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1659,7 +1660,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1680,7 +1681,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1699,7 +1700,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1718,7 +1719,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1737,7 +1738,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1756,7 +1757,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1767,7 +1768,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1792,7 +1793,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1811,7 +1812,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1836,7 +1837,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1855,7 +1856,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1873,7 +1874,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1884,7 +1885,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1903,7 +1904,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1914,7 +1915,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1934,7 +1935,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1953,7 +1954,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1972,7 +1973,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1991,7 +1992,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2010,7 +2011,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2029,7 +2030,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2048,7 +2049,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2514,7 +2515,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2549,7 +2550,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2569,7 +2570,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2580,7 +2581,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2600,7 +2601,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2618,7 +2619,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2629,7 +2630,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2640,7 +2641,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2651,7 +2652,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2690,7 +2691,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2851,7 +2852,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2862,7 +2863,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2873,7 +2874,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2884,7 +2885,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2904,7 +2905,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2915,7 +2916,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2926,7 +2927,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2937,7 +2938,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2957,7 +2958,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2968,7 +2969,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3050,7 +3051,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3088,7 +3089,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3099,7 +3100,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3132,7 +3133,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3143,7 +3144,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3153,7 +3154,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3164,7 +3165,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3185,7 +3186,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3196,7 +3197,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3206,7 +3207,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3217,7 +3218,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3235,7 +3236,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3254,7 +3255,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3272,7 +3273,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3283,7 +3284,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3304,7 +3305,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3315,7 +3316,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3336,7 +3337,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3347,7 +3348,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3368,7 +3369,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3379,7 +3380,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3401,7 +3402,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3435,7 +3436,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3446,7 +3447,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3483,7 +3484,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3494,7 +3495,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3516,7 +3517,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3713,18 +3714,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3732,7 +3733,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3740,7 +3741,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3748,14 +3749,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3764,7 +3765,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3772,7 +3773,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3788,7 +3789,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3796,7 +3797,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3804,7 +3805,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3813,7 +3814,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3822,7 +3823,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3831,7 +3832,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3965,7 +3966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3976,13 +3977,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3991,29 +4004,29 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -4027,33 +4040,18 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="83">
     <dxf>
@@ -5486,36 +5484,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="18" ySplit="12" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15:K15"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="11.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="18" width="8.625" style="1"/>
-    <col min="19" max="19" width="21.125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.625" style="2"/>
+    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.58203125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="8.58203125" style="1"/>
+    <col min="19" max="19" width="21.08203125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5534,7 +5532,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="2" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5553,7 +5551,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="3" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>257</v>
       </c>
@@ -5574,7 +5572,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="4" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>259</v>
       </c>
@@ -5595,7 +5593,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="5" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5614,7 +5612,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="6" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5633,7 +5631,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="7" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5652,7 +5650,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="8" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5671,7 +5669,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="9" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5690,7 +5688,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:18" hidden="1" outlineLevel="1">
+    <row r="10" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5709,7 +5707,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="2:18" collapsed="1">
+    <row r="11" spans="2:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5728,2612 +5726,2612 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:18" ht="23.45" customHeight="1">
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="2:18" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="2:18" ht="83.45" customHeight="1">
-      <c r="B13" s="29" t="s">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="23" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B15" s="13" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23" t="s">
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B17" s="13" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B18" s="13" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="23" t="s">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B19" s="13" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1">
-      <c r="B20" s="13" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="23" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="2:18" ht="54" customHeight="1">
-      <c r="B21" s="25" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="2:18" ht="54" customHeight="1">
-      <c r="B22" s="16" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="2:18" ht="71.45" customHeight="1">
-      <c r="B23" s="7" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="2:18" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="11" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="2:18" ht="71.45" customHeight="1">
-      <c r="B24" s="15" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="2:18" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="2:18" ht="71.45" customHeight="1">
-      <c r="B25" s="13" t="s">
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="2:18" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="11" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="2:18" ht="42.95" customHeight="1">
-      <c r="B26" s="7" t="s">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="2:18" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="11" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="2:18" ht="42.95" customHeight="1">
-      <c r="B27" s="15" t="s">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="2:18" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="11" t="s">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="2:18" ht="84" customHeight="1">
-      <c r="B28" s="7" t="s">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="11" t="s">
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="2:18" ht="84" customHeight="1">
-      <c r="B29" s="15" t="s">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="11" t="s">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="2:18" ht="84" customHeight="1">
-      <c r="B30" s="13" t="s">
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="11" t="s">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="2:18" ht="84" customHeight="1">
-      <c r="B31" s="13" t="s">
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="11" t="s">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="2:18" ht="84" customHeight="1">
-      <c r="B32" s="13" t="s">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="11" t="s">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-    </row>
-    <row r="33" spans="2:18" ht="72" customHeight="1">
-      <c r="B33" s="7" t="s">
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="11" t="s">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="2:18" ht="72" customHeight="1">
-      <c r="B34" s="15" t="s">
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="11" t="s">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-    </row>
-    <row r="35" spans="2:18" ht="72" customHeight="1">
-      <c r="B35" s="13" t="s">
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="11" t="s">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="2:18" ht="72" customHeight="1">
-      <c r="B36" s="13" t="s">
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="11" t="s">
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-    </row>
-    <row r="37" spans="2:18" ht="83.45" customHeight="1">
-      <c r="B37" s="7" t="s">
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="11" t="s">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-    </row>
-    <row r="38" spans="2:18" ht="83.45" customHeight="1">
-      <c r="B38" s="15" t="s">
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="11" t="s">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="2:18" ht="83.45" customHeight="1">
-      <c r="B39" s="13" t="s">
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="11" t="s">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="2:18" ht="83.45" customHeight="1">
-      <c r="B40" s="13" t="s">
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="11" t="s">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="2:18" ht="83.45" customHeight="1">
-      <c r="B41" s="13" t="s">
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="11" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="2:18" ht="52.5" customHeight="1">
-      <c r="B42" s="7" t="s">
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="11" t="s">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="2:18" ht="53.25" customHeight="1">
-      <c r="B43" s="15" t="s">
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="11" t="s">
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="2:18" ht="51.75" customHeight="1">
-      <c r="B44" s="13" t="s">
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="2:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="11" t="s">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="2:18" ht="53.25" customHeight="1">
-      <c r="B45" s="13" t="s">
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="11" t="s">
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="2:18" ht="69" customHeight="1">
-      <c r="B46" s="7" t="s">
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="11" t="s">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-    </row>
-    <row r="47" spans="2:18" ht="68.45" customHeight="1">
-      <c r="B47" s="15" t="s">
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="2:18" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="11" t="s">
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-    </row>
-    <row r="48" spans="2:18" ht="67.5" customHeight="1">
-      <c r="B48" s="13" t="s">
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="2:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E48" s="14"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="11" t="s">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-    </row>
-    <row r="49" spans="2:18" ht="68.45" customHeight="1">
-      <c r="B49" s="13" t="s">
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="2:18" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="11" t="s">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-    </row>
-    <row r="50" spans="2:18" ht="69" customHeight="1">
-      <c r="B50" s="7" t="s">
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="11" t="s">
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-    </row>
-    <row r="51" spans="2:18" ht="69" customHeight="1">
-      <c r="B51" s="15" t="s">
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="13" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="11" t="s">
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-    </row>
-    <row r="52" spans="2:18" ht="69" customHeight="1">
-      <c r="B52" s="13" t="s">
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="11" t="s">
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="2:18" ht="69" customHeight="1">
-      <c r="B53" s="13" t="s">
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="11" t="s">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-    </row>
-    <row r="54" spans="2:18" ht="41.45" customHeight="1">
-      <c r="B54" s="7" t="s">
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="2:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="11" t="s">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-    </row>
-    <row r="55" spans="2:18" ht="42" customHeight="1">
-      <c r="B55" s="15" t="s">
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+    </row>
+    <row r="55" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="11" t="s">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-    </row>
-    <row r="56" spans="2:18" ht="42" customHeight="1">
-      <c r="B56" s="13" t="s">
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+    </row>
+    <row r="56" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="11" t="s">
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-    </row>
-    <row r="57" spans="2:18" ht="42" customHeight="1">
-      <c r="B57" s="13" t="s">
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+    </row>
+    <row r="57" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="11" t="s">
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-    </row>
-    <row r="58" spans="2:18" ht="41.45" customHeight="1">
-      <c r="B58" s="7" t="s">
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+    </row>
+    <row r="58" spans="2:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="11" t="s">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="2:18" ht="42" customHeight="1">
-      <c r="B59" s="15" t="s">
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+    </row>
+    <row r="59" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="11" t="s">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-    </row>
-    <row r="60" spans="2:18" ht="41.45" customHeight="1">
-      <c r="B60" s="7" t="s">
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+    </row>
+    <row r="60" spans="2:18" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="9" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="11" t="s">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-    </row>
-    <row r="61" spans="2:18" ht="42" customHeight="1">
-      <c r="B61" s="15" t="s">
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+    </row>
+    <row r="61" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="11" t="s">
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-    </row>
-    <row r="62" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B62" s="7" t="s">
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+    </row>
+    <row r="62" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E62" s="10"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="11" t="s">
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-    </row>
-    <row r="63" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B63" s="15" t="s">
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+    </row>
+    <row r="63" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="11" t="s">
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-    </row>
-    <row r="64" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B64" s="15" t="s">
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+    </row>
+    <row r="64" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="11" t="s">
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-    </row>
-    <row r="65" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B65" s="15" t="s">
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+    </row>
+    <row r="65" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="11" t="s">
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-    </row>
-    <row r="66" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B66" s="15" t="s">
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+    </row>
+    <row r="66" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E66" s="14"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="11" t="s">
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-    </row>
-    <row r="67" spans="2:18" ht="65.25" customHeight="1">
-      <c r="B67" s="15" t="s">
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+    </row>
+    <row r="67" spans="2:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="11" t="s">
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-    </row>
-    <row r="68" spans="2:18" ht="65.25" customHeight="1">
-      <c r="B68" s="15" t="s">
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+    </row>
+    <row r="68" spans="2:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="11" t="s">
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-    </row>
-    <row r="69" spans="2:18" ht="64.5" customHeight="1">
-      <c r="B69" s="7" t="s">
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+    </row>
+    <row r="69" spans="2:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9" t="s">
+      <c r="C69" s="9"/>
+      <c r="D69" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="E69" s="10"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="11" t="s">
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-    </row>
-    <row r="70" spans="2:18" ht="63" customHeight="1">
-      <c r="B70" s="15" t="s">
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+    </row>
+    <row r="70" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="11" t="s">
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-    </row>
-    <row r="71" spans="2:18" ht="63" customHeight="1">
-      <c r="B71" s="15" t="s">
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+    </row>
+    <row r="71" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="11" t="s">
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-    </row>
-    <row r="72" spans="2:18" ht="63" customHeight="1">
-      <c r="B72" s="15" t="s">
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+    </row>
+    <row r="72" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="11" t="s">
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-    </row>
-    <row r="73" spans="2:18" ht="73.5" customHeight="1">
-      <c r="B73" s="15" t="s">
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+    </row>
+    <row r="73" spans="2:18" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="11" t="s">
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-    </row>
-    <row r="74" spans="2:18" ht="66.75" customHeight="1">
-      <c r="B74" s="15" t="s">
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+    </row>
+    <row r="74" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E74" s="14"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="11" t="s">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-    </row>
-    <row r="75" spans="2:18" ht="73.5" customHeight="1">
-      <c r="B75" s="15" t="s">
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+    </row>
+    <row r="75" spans="2:18" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="11" t="s">
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-    </row>
-    <row r="76" spans="2:18" ht="53.25" customHeight="1">
-      <c r="B76" s="7" t="s">
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+    </row>
+    <row r="76" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="9"/>
+      <c r="D76" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="11" t="s">
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-    </row>
-    <row r="77" spans="2:18" ht="52.5" customHeight="1">
-      <c r="B77" s="15" t="s">
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+    </row>
+    <row r="77" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="13" t="s">
+      <c r="C77" s="11"/>
+      <c r="D77" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="11" t="s">
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-    </row>
-    <row r="78" spans="2:18" ht="53.25" customHeight="1">
-      <c r="B78" s="7" t="s">
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+    </row>
+    <row r="78" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="9" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E78" s="10"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="11" t="s">
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-    </row>
-    <row r="79" spans="2:18" ht="52.5" customHeight="1">
-      <c r="B79" s="15" t="s">
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+    </row>
+    <row r="79" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="11" t="s">
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-    </row>
-    <row r="80" spans="2:18" ht="52.5" customHeight="1">
-      <c r="B80" s="13" t="s">
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+    </row>
+    <row r="80" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13" t="s">
+      <c r="C80" s="11"/>
+      <c r="D80" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="14"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="11" t="s">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-    </row>
-    <row r="81" spans="2:18" ht="52.5" customHeight="1">
-      <c r="B81" s="13" t="s">
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+    </row>
+    <row r="81" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="13" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E81" s="14"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="11" t="s">
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-    </row>
-    <row r="82" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B82" s="7" t="s">
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+    </row>
+    <row r="82" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="9" t="s">
+      <c r="C82" s="9"/>
+      <c r="D82" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E82" s="10"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="23" t="s">
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-    </row>
-    <row r="83" spans="2:18" ht="66.75" customHeight="1">
-      <c r="B83" s="15" t="s">
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+    </row>
+    <row r="83" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="13" t="s">
+      <c r="C83" s="11"/>
+      <c r="D83" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E83" s="14"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="23" t="s">
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-    </row>
-    <row r="84" spans="2:18" ht="66.75" customHeight="1">
-      <c r="B84" s="13" t="s">
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+    </row>
+    <row r="84" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="13" t="s">
+      <c r="C84" s="11"/>
+      <c r="D84" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E84" s="14"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="23" t="s">
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-    </row>
-    <row r="85" spans="2:18" ht="66.75" customHeight="1">
-      <c r="B85" s="13" t="s">
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+    </row>
+    <row r="85" spans="2:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="13" t="s">
+      <c r="C85" s="11"/>
+      <c r="D85" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E85" s="14"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="23" t="s">
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-    </row>
-    <row r="86" spans="2:18" ht="101.25" customHeight="1">
-      <c r="B86" s="7" t="s">
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+    </row>
+    <row r="86" spans="2:18" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="9" t="s">
+      <c r="C86" s="9"/>
+      <c r="D86" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E86" s="10"/>
+      <c r="E86" s="14"/>
       <c r="F86" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="23" t="s">
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-    </row>
-    <row r="87" spans="2:18" ht="105.75" customHeight="1">
-      <c r="B87" s="15" t="s">
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+    </row>
+    <row r="87" spans="2:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="11"/>
+      <c r="D87" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E87" s="14"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="23" t="s">
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-    </row>
-    <row r="88" spans="2:18" ht="103.5" customHeight="1">
-      <c r="B88" s="15" t="s">
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+    </row>
+    <row r="88" spans="2:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15" t="s">
+      <c r="C88" s="11"/>
+      <c r="D88" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E88" s="14"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="23" t="s">
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-    </row>
-    <row r="89" spans="2:18" ht="103.5" customHeight="1">
-      <c r="B89" s="15" t="s">
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+    </row>
+    <row r="89" spans="2:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15" t="s">
+      <c r="C89" s="11"/>
+      <c r="D89" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="23" t="s">
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-    </row>
-    <row r="90" spans="2:18" ht="117.75" customHeight="1">
-      <c r="B90" s="15" t="s">
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+    </row>
+    <row r="90" spans="2:18" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="11"/>
+      <c r="D90" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E90" s="14"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="23" t="s">
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-    </row>
-    <row r="91" spans="2:18" ht="117.75" customHeight="1">
-      <c r="B91" s="15" t="s">
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+    </row>
+    <row r="91" spans="2:18" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15" t="s">
+      <c r="C91" s="11"/>
+      <c r="D91" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="23" t="s">
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-    </row>
-    <row r="92" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B92" s="7" t="s">
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+    </row>
+    <row r="92" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="9" t="s">
+      <c r="C92" s="9"/>
+      <c r="D92" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="E92" s="10"/>
+      <c r="E92" s="14"/>
       <c r="F92" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="11" t="s">
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-    </row>
-    <row r="93" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B93" s="15" t="s">
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+    </row>
+    <row r="93" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="13" t="s">
+      <c r="C93" s="11"/>
+      <c r="D93" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E93" s="14"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="11" t="s">
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-    </row>
-    <row r="94" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B94" s="13" t="s">
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+    </row>
+    <row r="94" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="13" t="s">
+      <c r="C94" s="11"/>
+      <c r="D94" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E94" s="14"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="11" t="s">
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-    </row>
-    <row r="95" spans="2:18" ht="63.75" customHeight="1">
-      <c r="B95" s="13" t="s">
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+    </row>
+    <row r="95" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="14"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="11" t="s">
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:R95">
+  <autoFilter ref="B12:R95" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8347,16 +8345,308 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="336">
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:R59"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:R54"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:R57"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:R55"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:R56"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:R92"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:R95"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:R93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:R94"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:R86"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:R88"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:R91"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:R90"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:R82"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:R85"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:R83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:R84"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:R77"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:R78"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:R81"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:R79"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:R80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:R68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:R69"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:R75"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:R66"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:R70"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:R71"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:R72"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:R73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:R74"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:R76"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:R63"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:R64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:R65"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:R49"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:R60"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:R62"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:R29"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:R34"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
@@ -8381,308 +8671,16 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:R50"/>
     <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:R51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:R29"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:R49"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:R60"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:R62"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:R63"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:R64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:R65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:R68"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:R69"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:R75"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:R66"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:R70"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:R71"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:R72"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:R73"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:R74"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:R76"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:R77"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:R78"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:R81"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:R79"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:R80"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:R82"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:R85"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:R83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:R84"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:R86"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:R88"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:R91"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:R89"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:R90"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:R92"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:R95"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:R93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:R94"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:R59"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:R54"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:R57"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:R55"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:R56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G18">
@@ -9101,10 +9099,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F95">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F95" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/TopicManagement.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568C42F0-B834-4614-AF89-7A8AD7E5CC00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$12:$R$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Management!$B$12:$R$93</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="295">
   <si>
     <t>題型名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,7 +227,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -247,7 +246,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -266,7 +265,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -285,7 +284,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -304,7 +303,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -323,7 +322,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -342,7 +341,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -361,7 +360,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -380,7 +379,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -399,7 +398,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -418,7 +417,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -437,7 +436,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -456,7 +455,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -475,7 +474,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -494,7 +493,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -513,7 +512,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -532,7 +531,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +550,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -570,7 +569,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -589,7 +588,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -608,7 +607,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -627,7 +626,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -646,7 +645,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -665,7 +664,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -684,7 +683,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -703,7 +702,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -722,7 +721,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -741,31 +740,12 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AC007
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>★★★</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,7 +759,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -798,7 +778,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -817,7 +797,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -836,7 +816,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -855,7 +835,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -916,7 +896,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -943,7 +923,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -962,7 +942,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -989,7 +969,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1008,7 +988,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1027,7 +1007,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1061,7 +1041,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1080,7 +1060,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1106,7 +1086,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1125,7 +1105,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1151,7 +1131,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1177,7 +1157,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1218,7 +1198,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1245,7 +1225,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1280,7 +1260,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1299,7 +1279,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1318,7 +1298,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1337,7 +1317,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1383,7 +1363,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1402,7 +1382,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1430,7 +1410,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1458,7 +1438,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1477,7 +1457,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1496,7 +1476,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1515,7 +1495,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1534,7 +1514,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1553,7 +1533,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1564,7 +1544,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1585,7 +1565,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1596,7 +1576,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1617,7 +1597,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1628,7 +1608,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1649,7 +1629,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1660,7 +1640,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1681,7 +1661,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1700,7 +1680,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1719,7 +1699,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1738,7 +1718,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1757,7 +1737,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1768,7 +1748,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1793,7 +1773,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1812,7 +1792,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1837,7 +1817,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1856,7 +1836,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1874,7 +1854,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1885,7 +1865,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1904,7 +1884,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1915,7 +1895,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1935,7 +1915,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1954,7 +1934,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1973,7 +1953,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1992,7 +1972,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2011,7 +1991,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2030,7 +2010,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2049,7 +2029,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2515,7 +2495,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2542,25 +2522,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">AC008
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>★★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>編號07
 隨機指定貨幣轉換類型
 出題數量10題
@@ -2570,7 +2531,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2581,7 +2542,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2601,7 +2562,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2619,7 +2580,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2630,7 +2591,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2641,7 +2602,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2652,7 +2613,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2691,7 +2652,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2742,243 +2703,6 @@
 出題數量8題
 加減法計算式
 難度等級1~3級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC001",
-  "MaximumLimit": 50,
-  "NumberOfQuestions": 20,
-  "QuestionType": 2,
-  "Signs": [ 0, 1, 2, 3 ],
-  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC002",
-  "MaximumLimit": 30,
-  "NumberOfQuestions": 10,
-  "QuestionType": 1,
-  "Signs": [ 0 ],
-  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC003",
-  "MaximumLimit": 40,
-  "NumberOfQuestions": 15,
-  "QuestionType": 2,
-  "Signs": [ 1 ],
-  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC004",
-  "MaximumLimit": 81,
-  "NumberOfQuestions": 10,
-  "QuestionType": 1,
-  "Signs": [ 2 ],
-  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC005",
-  "MaximumLimit": 81,
-  "NumberOfQuestions": 10,
-  "QuestionType": 1,
-  "Signs": [ 3 ],
-  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC008",
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 30,
-  "QuestionType": 2,
-  "Signs": [ 0, 1 ],
-  "Reserve": "{\"Multistage\" : 0, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC006",
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 20,
-  "QuestionType": 2,
-  "Signs": [ 0, 1 ],
-  "Reserve": "{\"Multistage\" : 1, \"Bracket\" : 0}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Identifier": "AC007",
-  "MaximumLimit": 20,
-  "NumberOfQuestions": 20,
-  "QuestionType": 2,
-  "Signs": [ 0, 1 ],
-  "Reserve": "{\"Multistage\" : 1, \"Bracket\" : 1}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號03
-計算結果最大值40
-出題數量15題
-填空項目的位置隨機設定
-減法運算題
-一級方程式; 不帶小括號;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號04
-計算結果最大值81
-出題數量10題
-填空項目的位置設定在結果項目上
-乘法運算題
-一級方程式; 不帶小括號;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號05
-計算結果最大值81
-出題數量10題
-填空項目的位置設定在結果項目上
-除法運算題
-一級方程式; 不帶小括號;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號08
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20
-出題數量30題(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加答題量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-填空項目的位置隨機設定
-加減法運算題
-一級方程式; 不帶小括號;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號06
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20
-出題數量20題(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加運算複雜度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-填空項目的位置隨機設定
-加減法運算題
-多級方程式; 不帶小括號;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號07
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20
-出題數量20題
-填空項目的位置隨機設定
-加減法運算題
-多級方程式; 帶小括號;</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3051,7 +2775,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3089,7 +2813,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3100,7 +2824,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +2857,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3144,7 +2868,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +2878,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3165,7 +2889,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3186,7 +2910,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3197,7 +2921,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3207,7 +2931,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3218,7 +2942,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3236,7 +2960,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3255,76 +2979,12 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號01
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50
-出題數量20題
-填空項目的位置隨機設定
-加減乘除運算題都可出題
-一級方程式; 不帶小括號;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>編號02
-計算結果最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30
-出題數量10題
-填空項目的位置設定在結果項目上
-加法運算題
-一級方程式; 不帶小括號;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3337,7 +2997,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3348,7 +3008,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3369,7 +3029,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3380,7 +3040,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3402,7 +3062,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3436,7 +3096,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3447,7 +3107,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3484,7 +3144,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3495,7 +3155,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3517,7 +3177,7 @@
         <b/>
         <sz val="10"/>
         <color theme="7"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3708,24 +3368,279 @@
     <t xml:space="preserve">  "Identifier": "GFP02",
   "NumberOfQuestions": 10,
   "Reserve": "{\"Level\" : '4,5'}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "AC001",
+  "MaximumLimit": 50,
+  "NumberOfQuestions": 20,
+  "QuestionType": 2,
+  "Signs": [ 0, 1, 2, 3 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號01
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50
+出題數量20題
+填空項目的位置隨機設定
+加減乘除運算題都可出題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "AC002",
+  "MaximumLimit": 30,
+  "NumberOfQuestions": 10,
+  "QuestionType": 1,
+  "Signs": [ 0 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號02
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30
+出題數量10題
+填空項目的位置設定在結果項目上
+加法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "AC003",
+  "MaximumLimit": 40,
+  "NumberOfQuestions": 15,
+  "QuestionType": 2,
+  "Signs": [ 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號03
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40
+出題數量15題
+填空項目的位置隨機設定
+減法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "AC004",
+  "MaximumLimit": 81,
+  "NumberOfQuestions": 10,
+  "QuestionType": 1,
+  "Signs": [ 2 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號04
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81
+出題數量10題
+填空項目的位置設定在結果項目上
+乘法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "AC005",
+  "MaximumLimit": 81,
+  "NumberOfQuestions": 10,
+  "QuestionType": 1,
+  "Signs": [ 3 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號05
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81
+出題數量10題
+填空項目的位置設定在結果項目上
+除法運算題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Identifier": "AC006",
+  "MaximumLimit": 20,
+  "NumberOfQuestions": 20,
+  "QuestionType": 2,
+  "Signs": [ 0, 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>編號06
+計算結果最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20
+出題數量20題(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加運算複雜度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+填空項目的位置隨機設定
+加減法運算題</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3733,7 +3648,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3741,7 +3656,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3749,14 +3664,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3765,7 +3680,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3773,7 +3688,7 @@
       <b/>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3789,7 +3704,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3797,7 +3712,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3805,7 +3720,7 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3814,7 +3729,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3823,7 +3738,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3832,7 +3747,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3977,25 +3892,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4004,11 +3904,53 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4022,36 +3964,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="83">
     <dxf>
@@ -5484,36 +5399,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="12" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="12" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:C13"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="11.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.58203125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="8.58203125" style="1"/>
-    <col min="19" max="19" width="21.08203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.58203125" style="2"/>
+    <col min="4" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="18" width="8.625" style="1"/>
+    <col min="19" max="19" width="21.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5532,7 +5447,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5551,9 +5466,9 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5572,9 +5487,9 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5593,7 +5508,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5612,7 +5527,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5631,7 +5546,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5650,7 +5565,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5669,7 +5584,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5688,7 +5603,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5707,7 +5622,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="2:18" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5726,2612 +5641,2550 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:18" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="2:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="2:18" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="2:18" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="18" spans="2:18" s="3" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="2:18" ht="71.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="2:18" ht="71.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="2:18" ht="71.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="2:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="2:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="2:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="2:18" ht="83.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="2:18" ht="83.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="2:18" ht="83.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="2:18" ht="83.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="2:18" ht="83.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+    </row>
+    <row r="42" spans="2:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+    </row>
+    <row r="45" spans="2:18" ht="68.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+    </row>
+    <row r="46" spans="2:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="2:18" ht="68.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+    </row>
+    <row r="48" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+    </row>
+    <row r="49" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+    </row>
+    <row r="50" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+    </row>
+    <row r="51" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+    </row>
+    <row r="52" spans="2:18" ht="41.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+    </row>
+    <row r="53" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+    </row>
+    <row r="54" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+    </row>
+    <row r="55" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+    </row>
+    <row r="56" spans="2:18" ht="41.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+    </row>
+    <row r="57" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+    </row>
+    <row r="58" spans="2:18" ht="41.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+    </row>
+    <row r="59" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+    </row>
+    <row r="60" spans="2:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="2:18" s="3" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="5" t="s"